--- a/课后作业成绩2018/作业成绩.xlsx
+++ b/课后作业成绩2018/作业成绩.xlsx
@@ -1304,8 +1304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z37" sqref="Z37"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA61" sqref="AA61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2057,7 +2057,9 @@
       <c r="Q17" s="2">
         <v>70</v>
       </c>
-      <c r="R17" s="2"/>
+      <c r="R17" s="2">
+        <v>90</v>
+      </c>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
@@ -2425,8 +2427,12 @@
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
+      <c r="P25" s="2">
+        <v>95</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>90</v>
+      </c>
       <c r="R25" s="2">
         <v>95</v>
       </c>
@@ -4244,8 +4250,12 @@
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
-      <c r="P64" s="2"/>
-      <c r="Q64" s="2"/>
+      <c r="P64" s="2">
+        <v>70</v>
+      </c>
+      <c r="Q64" s="2">
+        <v>70</v>
+      </c>
       <c r="R64" s="2"/>
       <c r="S64" s="2"/>
       <c r="T64" s="2"/>

--- a/课后作业成绩2018/作业成绩.xlsx
+++ b/课后作业成绩2018/作业成绩.xlsx
@@ -1304,8 +1304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA61" sqref="AA61"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AB25" sqref="AB25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1545,7 +1545,9 @@
       </c>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
+      <c r="U6" s="2">
+        <v>90</v>
+      </c>
       <c r="V6" s="2"/>
       <c r="W6" s="3"/>
     </row>
@@ -1592,7 +1594,9 @@
       </c>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
+      <c r="U7" s="2">
+        <v>100</v>
+      </c>
       <c r="V7" s="2"/>
       <c r="W7" s="3"/>
     </row>
@@ -1639,7 +1643,9 @@
       </c>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
+      <c r="U8" s="2">
+        <v>80</v>
+      </c>
       <c r="V8" s="2"/>
       <c r="W8" s="3"/>
     </row>
@@ -1686,7 +1692,9 @@
       </c>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
+      <c r="U9" s="2">
+        <v>100</v>
+      </c>
       <c r="V9" s="2"/>
       <c r="W9" s="3"/>
     </row>
@@ -1733,7 +1741,9 @@
       </c>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
+      <c r="U10" s="2">
+        <v>95</v>
+      </c>
       <c r="V10" s="2"/>
       <c r="W10" s="3"/>
     </row>
@@ -1780,7 +1790,9 @@
       </c>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
+      <c r="U11" s="2">
+        <v>100</v>
+      </c>
       <c r="V11" s="2"/>
       <c r="W11" s="3"/>
     </row>
@@ -1827,7 +1839,9 @@
       </c>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
+      <c r="U12" s="2">
+        <v>100</v>
+      </c>
       <c r="V12" s="2"/>
       <c r="W12" s="3"/>
     </row>
@@ -1874,7 +1888,9 @@
       </c>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
+      <c r="U13" s="2">
+        <v>100</v>
+      </c>
       <c r="V13" s="2"/>
       <c r="W13" s="3"/>
     </row>
@@ -1921,7 +1937,9 @@
       </c>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
+      <c r="U14" s="2">
+        <v>95</v>
+      </c>
       <c r="V14" s="2"/>
       <c r="W14" s="3"/>
     </row>
@@ -1968,7 +1986,9 @@
       </c>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
+      <c r="U15" s="2">
+        <v>90</v>
+      </c>
       <c r="V15" s="2"/>
       <c r="W15" s="3"/>
     </row>
@@ -2015,7 +2035,9 @@
       </c>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
+      <c r="U16" s="2">
+        <v>100</v>
+      </c>
       <c r="V16" s="2"/>
       <c r="W16" s="3"/>
     </row>
@@ -2156,7 +2178,9 @@
       </c>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
+      <c r="U19" s="2">
+        <v>95</v>
+      </c>
       <c r="V19" s="2"/>
       <c r="W19" s="3"/>
     </row>
@@ -2203,7 +2227,9 @@
       </c>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
+      <c r="U20" s="2">
+        <v>90</v>
+      </c>
       <c r="V20" s="2"/>
       <c r="W20" s="3"/>
     </row>
@@ -2250,7 +2276,9 @@
       </c>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
+      <c r="U21" s="2">
+        <v>90</v>
+      </c>
       <c r="V21" s="2"/>
       <c r="W21" s="3"/>
     </row>
@@ -2297,7 +2325,9 @@
       </c>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
+      <c r="U22" s="2">
+        <v>80</v>
+      </c>
       <c r="V22" s="2"/>
       <c r="W22" s="3"/>
     </row>
@@ -2344,7 +2374,9 @@
       </c>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
+      <c r="U23" s="2">
+        <v>90</v>
+      </c>
       <c r="V23" s="2"/>
       <c r="W23" s="3"/>
     </row>
@@ -2391,7 +2423,9 @@
       </c>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
+      <c r="U24" s="2">
+        <v>95</v>
+      </c>
       <c r="V24" s="2"/>
       <c r="W24" s="3"/>
     </row>
@@ -2438,7 +2472,9 @@
       </c>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
-      <c r="U25" s="2"/>
+      <c r="U25" s="2">
+        <v>85</v>
+      </c>
       <c r="V25" s="2"/>
       <c r="W25" s="3"/>
     </row>
@@ -2485,7 +2521,9 @@
       </c>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
+      <c r="U26" s="2">
+        <v>100</v>
+      </c>
       <c r="V26" s="2"/>
       <c r="W26" s="3"/>
     </row>
@@ -2532,7 +2570,9 @@
       </c>
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
-      <c r="U27" s="2"/>
+      <c r="U27" s="2">
+        <v>100</v>
+      </c>
       <c r="V27" s="2"/>
       <c r="W27" s="3"/>
     </row>
@@ -2579,7 +2619,9 @@
       </c>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
+      <c r="U28" s="2">
+        <v>95</v>
+      </c>
       <c r="V28" s="2"/>
       <c r="W28" s="3"/>
     </row>
@@ -2626,7 +2668,9 @@
       </c>
       <c r="S29" s="2"/>
       <c r="T29" s="2"/>
-      <c r="U29" s="2"/>
+      <c r="U29" s="2">
+        <v>95</v>
+      </c>
       <c r="V29" s="2"/>
       <c r="W29" s="3"/>
     </row>
@@ -2673,7 +2717,9 @@
       </c>
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
-      <c r="U30" s="2"/>
+      <c r="U30" s="2">
+        <v>90</v>
+      </c>
       <c r="V30" s="2"/>
       <c r="W30" s="3"/>
     </row>
@@ -2720,7 +2766,9 @@
       </c>
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
-      <c r="U31" s="2"/>
+      <c r="U31" s="2">
+        <v>90</v>
+      </c>
       <c r="V31" s="2"/>
       <c r="W31" s="3"/>
     </row>
@@ -2767,7 +2815,9 @@
       </c>
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
-      <c r="U32" s="2"/>
+      <c r="U32" s="2">
+        <v>100</v>
+      </c>
       <c r="V32" s="2"/>
       <c r="W32" s="3"/>
     </row>
@@ -2861,7 +2911,9 @@
       </c>
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
+      <c r="U34" s="2">
+        <v>95</v>
+      </c>
       <c r="V34" s="2"/>
       <c r="W34" s="3"/>
     </row>
@@ -2908,7 +2960,9 @@
       </c>
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
-      <c r="U35" s="2"/>
+      <c r="U35" s="2">
+        <v>100</v>
+      </c>
       <c r="V35" s="2"/>
       <c r="W35" s="3"/>
     </row>
@@ -2955,7 +3009,9 @@
       </c>
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
+      <c r="U36" s="2">
+        <v>90</v>
+      </c>
       <c r="V36" s="2"/>
       <c r="W36" s="3"/>
     </row>
@@ -3002,7 +3058,9 @@
       </c>
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
-      <c r="U37" s="2"/>
+      <c r="U37" s="2">
+        <v>95</v>
+      </c>
       <c r="V37" s="2"/>
       <c r="W37" s="3"/>
     </row>
@@ -3049,7 +3107,9 @@
       </c>
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
+      <c r="U38" s="2">
+        <v>95</v>
+      </c>
       <c r="V38" s="2"/>
       <c r="W38" s="3"/>
     </row>
@@ -3096,7 +3156,9 @@
       </c>
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
-      <c r="U39" s="2"/>
+      <c r="U39" s="2">
+        <v>95</v>
+      </c>
       <c r="V39" s="2"/>
       <c r="W39" s="3"/>
     </row>
@@ -3184,7 +3246,9 @@
       </c>
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
-      <c r="U41" s="2"/>
+      <c r="U41" s="2">
+        <v>90</v>
+      </c>
       <c r="V41" s="2"/>
       <c r="W41" s="3"/>
     </row>
@@ -3231,7 +3295,9 @@
       </c>
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
-      <c r="U42" s="2"/>
+      <c r="U42" s="2">
+        <v>80</v>
+      </c>
       <c r="V42" s="2"/>
       <c r="W42" s="3"/>
     </row>
@@ -3325,7 +3391,9 @@
       </c>
       <c r="S44" s="2"/>
       <c r="T44" s="2"/>
-      <c r="U44" s="2"/>
+      <c r="U44" s="2">
+        <v>95</v>
+      </c>
       <c r="V44" s="2"/>
       <c r="W44" s="3"/>
     </row>
@@ -3372,7 +3440,9 @@
       </c>
       <c r="S45" s="2"/>
       <c r="T45" s="2"/>
-      <c r="U45" s="2"/>
+      <c r="U45" s="2">
+        <v>95</v>
+      </c>
       <c r="V45" s="2"/>
       <c r="W45" s="3"/>
     </row>
@@ -3419,7 +3489,9 @@
       </c>
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
-      <c r="U46" s="2"/>
+      <c r="U46" s="2">
+        <v>95</v>
+      </c>
       <c r="V46" s="2"/>
       <c r="W46" s="3"/>
     </row>
@@ -3466,7 +3538,9 @@
       </c>
       <c r="S47" s="2"/>
       <c r="T47" s="2"/>
-      <c r="U47" s="2"/>
+      <c r="U47" s="2">
+        <v>90</v>
+      </c>
       <c r="V47" s="2"/>
       <c r="W47" s="3"/>
     </row>
@@ -3513,7 +3587,9 @@
       </c>
       <c r="S48" s="2"/>
       <c r="T48" s="2"/>
-      <c r="U48" s="2"/>
+      <c r="U48" s="2">
+        <v>90</v>
+      </c>
       <c r="V48" s="2"/>
       <c r="W48" s="3"/>
     </row>
@@ -3560,7 +3636,9 @@
       </c>
       <c r="S49" s="2"/>
       <c r="T49" s="2"/>
-      <c r="U49" s="2"/>
+      <c r="U49" s="2">
+        <v>95</v>
+      </c>
       <c r="V49" s="2"/>
       <c r="W49" s="3"/>
     </row>
@@ -3607,7 +3685,9 @@
       </c>
       <c r="S50" s="2"/>
       <c r="T50" s="2"/>
-      <c r="U50" s="2"/>
+      <c r="U50" s="2">
+        <v>90</v>
+      </c>
       <c r="V50" s="2"/>
       <c r="W50" s="3"/>
     </row>
@@ -3654,7 +3734,9 @@
       </c>
       <c r="S51" s="2"/>
       <c r="T51" s="2"/>
-      <c r="U51" s="2"/>
+      <c r="U51" s="2">
+        <v>95</v>
+      </c>
       <c r="V51" s="2"/>
       <c r="W51" s="3"/>
     </row>
@@ -3699,7 +3781,9 @@
       <c r="R52" s="2"/>
       <c r="S52" s="2"/>
       <c r="T52" s="2"/>
-      <c r="U52" s="2"/>
+      <c r="U52" s="2">
+        <v>90</v>
+      </c>
       <c r="V52" s="2"/>
       <c r="W52" s="3"/>
     </row>
@@ -3746,7 +3830,9 @@
       </c>
       <c r="S53" s="2"/>
       <c r="T53" s="2"/>
-      <c r="U53" s="2"/>
+      <c r="U53" s="2">
+        <v>95</v>
+      </c>
       <c r="V53" s="2"/>
       <c r="W53" s="3"/>
     </row>
@@ -3793,7 +3879,9 @@
       </c>
       <c r="S54" s="2"/>
       <c r="T54" s="2"/>
-      <c r="U54" s="2"/>
+      <c r="U54" s="2">
+        <v>100</v>
+      </c>
       <c r="V54" s="2"/>
       <c r="W54" s="3"/>
     </row>
@@ -3840,7 +3928,9 @@
       </c>
       <c r="S55" s="2"/>
       <c r="T55" s="2"/>
-      <c r="U55" s="2"/>
+      <c r="U55" s="2">
+        <v>95</v>
+      </c>
       <c r="V55" s="2"/>
       <c r="W55" s="3"/>
     </row>
@@ -3887,7 +3977,9 @@
       </c>
       <c r="S56" s="2"/>
       <c r="T56" s="2"/>
-      <c r="U56" s="2"/>
+      <c r="U56" s="2">
+        <v>100</v>
+      </c>
       <c r="V56" s="2"/>
       <c r="W56" s="3"/>
     </row>
@@ -3934,7 +4026,9 @@
       </c>
       <c r="S57" s="2"/>
       <c r="T57" s="2"/>
-      <c r="U57" s="2"/>
+      <c r="U57" s="2">
+        <v>95</v>
+      </c>
       <c r="V57" s="2"/>
       <c r="W57" s="3"/>
     </row>
@@ -3981,7 +4075,9 @@
       </c>
       <c r="S58" s="2"/>
       <c r="T58" s="2"/>
-      <c r="U58" s="2"/>
+      <c r="U58" s="2">
+        <v>95</v>
+      </c>
       <c r="V58" s="2"/>
       <c r="W58" s="3"/>
     </row>
@@ -4028,7 +4124,9 @@
       </c>
       <c r="S59" s="2"/>
       <c r="T59" s="2"/>
-      <c r="U59" s="2"/>
+      <c r="U59" s="2">
+        <v>95</v>
+      </c>
       <c r="V59" s="2"/>
       <c r="W59" s="3"/>
     </row>
@@ -4075,7 +4173,9 @@
       </c>
       <c r="S60" s="2"/>
       <c r="T60" s="2"/>
-      <c r="U60" s="2"/>
+      <c r="U60" s="2">
+        <v>95</v>
+      </c>
       <c r="V60" s="2"/>
       <c r="W60" s="3"/>
     </row>
@@ -4122,7 +4222,9 @@
       </c>
       <c r="S61" s="2"/>
       <c r="T61" s="2"/>
-      <c r="U61" s="2"/>
+      <c r="U61" s="2">
+        <v>100</v>
+      </c>
       <c r="V61" s="2"/>
       <c r="W61" s="3"/>
     </row>
@@ -4169,7 +4271,9 @@
       </c>
       <c r="S62" s="2"/>
       <c r="T62" s="2"/>
-      <c r="U62" s="2"/>
+      <c r="U62" s="2">
+        <v>95</v>
+      </c>
       <c r="V62" s="2"/>
       <c r="W62" s="3"/>
     </row>
@@ -4216,7 +4320,9 @@
       </c>
       <c r="S63" s="2"/>
       <c r="T63" s="2"/>
-      <c r="U63" s="2"/>
+      <c r="U63" s="2">
+        <v>95</v>
+      </c>
       <c r="V63" s="2"/>
       <c r="W63" s="3"/>
     </row>

--- a/课后作业成绩2018/作业成绩.xlsx
+++ b/课后作业成绩2018/作业成绩.xlsx
@@ -1304,8 +1304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB25" sqref="AB25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2131,7 +2131,9 @@
       </c>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
+      <c r="U18" s="2">
+        <v>95</v>
+      </c>
       <c r="V18" s="2"/>
       <c r="W18" s="3"/>
     </row>

--- a/课后作业成绩2018/作业成绩.xlsx
+++ b/课后作业成绩2018/作业成绩.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="studentList (1)" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="88">
   <si>
     <t>南京大学  《离散数学》  课程学生名单</t>
   </si>
@@ -39,247 +39,254 @@
     <t>院系专业</t>
   </si>
   <si>
+    <t> 2 </t>
+  </si>
+  <si>
+    <t> 4 </t>
+  </si>
+  <si>
+    <t> 5 </t>
+  </si>
+  <si>
+    <t> 6 </t>
+  </si>
+  <si>
+    <t> 8 </t>
+  </si>
+  <si>
+    <t>  备注  </t>
+  </si>
+  <si>
+    <t> 彭不同</t>
+  </si>
+  <si>
+    <t>开放</t>
+  </si>
+  <si>
+    <t> 地科 - 地质学</t>
+  </si>
+  <si>
+    <t> 田栢麟</t>
+  </si>
+  <si>
+    <t> 化学 - 化学</t>
+  </si>
+  <si>
+    <t> 王铎</t>
+  </si>
+  <si>
+    <t> 中文 - 影视</t>
+  </si>
+  <si>
+    <t> 汤芷萱</t>
+  </si>
+  <si>
+    <t> 电子 - 通信工程</t>
+  </si>
+  <si>
+    <t> 殷至舟</t>
+  </si>
+  <si>
+    <t> *经济管理试验班 - *经济管理试验班</t>
+  </si>
+  <si>
+    <t> 邵帅</t>
+  </si>
+  <si>
+    <t> *地球科学与资源环境类 - *地球科学与资源环境类</t>
+  </si>
+  <si>
+    <t> 石宇星</t>
+  </si>
+  <si>
+    <t> *化学与生命科学类 - *化学与生命科学类</t>
+  </si>
+  <si>
+    <t> 宋媛媛</t>
+  </si>
+  <si>
+    <t>正选</t>
+  </si>
+  <si>
+    <t> *计算机科学与技术类 - *计算机科学与技术类</t>
+  </si>
+  <si>
+    <t> 张雨</t>
+  </si>
+  <si>
+    <t> 刘宇萱</t>
+  </si>
+  <si>
+    <t> 张兰兰</t>
+  </si>
+  <si>
+    <t> 周裕彬</t>
+  </si>
+  <si>
+    <t> 张佳锐</t>
+  </si>
+  <si>
+    <t> 陈攀岭</t>
+  </si>
+  <si>
+    <t> 李培剀</t>
+  </si>
+  <si>
+    <t> 孙润来</t>
+  </si>
+  <si>
+    <t> 沈天琪</t>
+  </si>
+  <si>
+    <t> 王一</t>
+  </si>
+  <si>
+    <t> 李思勉</t>
+  </si>
+  <si>
+    <t> 褚有刚</t>
+  </si>
+  <si>
+    <t> 石丰源</t>
+  </si>
+  <si>
+    <t> 郭睿杰</t>
+  </si>
+  <si>
+    <t> 黄逸维</t>
+  </si>
+  <si>
+    <t> 周思行</t>
+  </si>
+  <si>
+    <t> 周云泽</t>
+  </si>
+  <si>
+    <t> 彭翔宇</t>
+  </si>
+  <si>
+    <t> 谢宇轩</t>
+  </si>
+  <si>
+    <t> 刘力源</t>
+  </si>
+  <si>
+    <t> 刘添翼</t>
+  </si>
+  <si>
+    <t> 吴松</t>
+  </si>
+  <si>
+    <t> 胡育玮</t>
+  </si>
+  <si>
+    <t> 张梓悦</t>
+  </si>
+  <si>
+    <t> 郭骁</t>
+  </si>
+  <si>
+    <t> 王致远</t>
+  </si>
+  <si>
+    <t> 马国豪</t>
+  </si>
+  <si>
+    <t> 侯培诺</t>
+  </si>
+  <si>
+    <t> 居思远</t>
+  </si>
+  <si>
+    <t> 韦华飞</t>
+  </si>
+  <si>
+    <t> 李天赐</t>
+  </si>
+  <si>
+    <t> 酒阜康</t>
+  </si>
+  <si>
+    <t> 郁辰阳</t>
+  </si>
+  <si>
+    <t> 施超烜</t>
+  </si>
+  <si>
+    <t> 肖维城</t>
+  </si>
+  <si>
+    <t> 王昆</t>
+  </si>
+  <si>
+    <t> 刘松桦</t>
+  </si>
+  <si>
+    <t> 吴晓阳</t>
+  </si>
+  <si>
+    <t> 蒋雨宸</t>
+  </si>
+  <si>
+    <t> 徐国栋</t>
+  </si>
+  <si>
+    <t> 周若衡</t>
+  </si>
+  <si>
+    <t> 陈昊东</t>
+  </si>
+  <si>
+    <t> 赵昊</t>
+  </si>
+  <si>
+    <t> 王聪</t>
+  </si>
+  <si>
+    <t> 刘如岩</t>
+  </si>
+  <si>
+    <t> 冯旭晨</t>
+  </si>
+  <si>
+    <t> 苏泓铭</t>
+  </si>
+  <si>
+    <t> 王一博</t>
+  </si>
+  <si>
+    <t> 王小泽</t>
+  </si>
+  <si>
+    <t> 刘晨宇</t>
+  </si>
+  <si>
+    <t> 卜子睿</t>
+  </si>
+  <si>
+    <t> *工科试验班 - *工科试验班</t>
+  </si>
+  <si>
+    <t> 施展</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
     <t> 1 </t>
-  </si>
-  <si>
-    <t> 2 </t>
-  </si>
-  <si>
-    <t> 3 </t>
-  </si>
-  <si>
-    <t> 4 </t>
-  </si>
-  <si>
-    <t> 5 </t>
-  </si>
-  <si>
-    <t> 6 </t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t> 3</t>
   </si>
   <si>
     <t> 7 </t>
-  </si>
-  <si>
-    <t> 8 </t>
-  </si>
-  <si>
-    <t> 9 </t>
-  </si>
-  <si>
-    <t>  备注  </t>
-  </si>
-  <si>
-    <t> 彭不同</t>
-  </si>
-  <si>
-    <t>开放</t>
-  </si>
-  <si>
-    <t> 地科 - 地质学</t>
-  </si>
-  <si>
-    <t> 田栢麟</t>
-  </si>
-  <si>
-    <t> 化学 - 化学</t>
-  </si>
-  <si>
-    <t> 王铎</t>
-  </si>
-  <si>
-    <t> 中文 - 影视</t>
-  </si>
-  <si>
-    <t> 汤芷萱</t>
-  </si>
-  <si>
-    <t> 电子 - 通信工程</t>
-  </si>
-  <si>
-    <t> 殷至舟</t>
-  </si>
-  <si>
-    <t> *经济管理试验班 - *经济管理试验班</t>
-  </si>
-  <si>
-    <t> 邵帅</t>
-  </si>
-  <si>
-    <t> *地球科学与资源环境类 - *地球科学与资源环境类</t>
-  </si>
-  <si>
-    <t> 石宇星</t>
-  </si>
-  <si>
-    <t> *化学与生命科学类 - *化学与生命科学类</t>
-  </si>
-  <si>
-    <t> 宋媛媛</t>
-  </si>
-  <si>
-    <t>正选</t>
-  </si>
-  <si>
-    <t> *计算机科学与技术类 - *计算机科学与技术类</t>
-  </si>
-  <si>
-    <t> 张雨</t>
-  </si>
-  <si>
-    <t> 刘宇萱</t>
-  </si>
-  <si>
-    <t> 张兰兰</t>
-  </si>
-  <si>
-    <t> 周裕彬</t>
-  </si>
-  <si>
-    <t> 张佳锐</t>
-  </si>
-  <si>
-    <t> 陈攀岭</t>
-  </si>
-  <si>
-    <t> 李培剀</t>
-  </si>
-  <si>
-    <t> 孙润来</t>
-  </si>
-  <si>
-    <t> 沈天琪</t>
-  </si>
-  <si>
-    <t> 王一</t>
-  </si>
-  <si>
-    <t> 李思勉</t>
-  </si>
-  <si>
-    <t> 褚有刚</t>
-  </si>
-  <si>
-    <t> 石丰源</t>
-  </si>
-  <si>
-    <t> 郭睿杰</t>
-  </si>
-  <si>
-    <t> 黄逸维</t>
-  </si>
-  <si>
-    <t> 周思行</t>
-  </si>
-  <si>
-    <t> 周云泽</t>
-  </si>
-  <si>
-    <t> 彭翔宇</t>
-  </si>
-  <si>
-    <t> 谢宇轩</t>
-  </si>
-  <si>
-    <t> 刘力源</t>
-  </si>
-  <si>
-    <t> 刘添翼</t>
-  </si>
-  <si>
-    <t> 吴松</t>
-  </si>
-  <si>
-    <t> 胡育玮</t>
-  </si>
-  <si>
-    <t> 张梓悦</t>
-  </si>
-  <si>
-    <t> 郭骁</t>
-  </si>
-  <si>
-    <t> 王致远</t>
-  </si>
-  <si>
-    <t> 马国豪</t>
-  </si>
-  <si>
-    <t> 侯培诺</t>
-  </si>
-  <si>
-    <t> 居思远</t>
-  </si>
-  <si>
-    <t> 韦华飞</t>
-  </si>
-  <si>
-    <t> 李天赐</t>
-  </si>
-  <si>
-    <t> 酒阜康</t>
-  </si>
-  <si>
-    <t> 郁辰阳</t>
-  </si>
-  <si>
-    <t> 施超烜</t>
-  </si>
-  <si>
-    <t> 肖维城</t>
-  </si>
-  <si>
-    <t> 王昆</t>
-  </si>
-  <si>
-    <t> 刘松桦</t>
-  </si>
-  <si>
-    <t> 吴晓阳</t>
-  </si>
-  <si>
-    <t> 蒋雨宸</t>
-  </si>
-  <si>
-    <t> 徐国栋</t>
-  </si>
-  <si>
-    <t> 周若衡</t>
-  </si>
-  <si>
-    <t> 陈昊东</t>
-  </si>
-  <si>
-    <t> 赵昊</t>
-  </si>
-  <si>
-    <t> 王聪</t>
-  </si>
-  <si>
-    <t> 刘如岩</t>
-  </si>
-  <si>
-    <t> 冯旭晨</t>
-  </si>
-  <si>
-    <t> 苏泓铭</t>
-  </si>
-  <si>
-    <t> 王一博</t>
-  </si>
-  <si>
-    <t> 王小泽</t>
-  </si>
-  <si>
-    <t> 刘晨宇</t>
-  </si>
-  <si>
-    <t> 卜子睿</t>
-  </si>
-  <si>
-    <t> *工科试验班 - *工科试验班</t>
-  </si>
-  <si>
-    <t> 施展</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t> 16</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>90s s</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
@@ -287,7 +294,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -476,6 +483,13 @@
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -928,7 +942,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -944,7 +958,16 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1302,10 +1325,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W64"/>
+  <dimension ref="A1:Y64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB58" sqref="AB58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1316,89 +1339,92 @@
     <col min="4" max="4" width="60.5" customWidth="1"/>
     <col min="5" max="13" width="6.125" customWidth="1"/>
     <col min="14" max="22" width="6.5" customWidth="1"/>
-    <col min="23" max="23" width="14.375" customWidth="1"/>
+    <col min="23" max="24" width="6.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-    </row>
-    <row r="3" spans="1:23" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="4"/>
+    </row>
+    <row r="2" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="4"/>
+    </row>
+    <row r="3" spans="1:25" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-    </row>
-    <row r="4" spans="1:23" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="7"/>
+    </row>
+    <row r="4" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1412,31 +1438,31 @@
         <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="K4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>14</v>
+      <c r="M4" s="1">
+        <v>9</v>
       </c>
       <c r="N4" s="1">
         <v>10</v>
@@ -1456,8 +1482,8 @@
       <c r="S4" s="1">
         <v>15</v>
       </c>
-      <c r="T4" s="1">
-        <v>16</v>
+      <c r="T4" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="U4" s="1">
         <v>17</v>
@@ -1465,22 +1491,28 @@
       <c r="V4" s="1">
         <v>18</v>
       </c>
-      <c r="W4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W4" s="1">
+        <v>19</v>
+      </c>
+      <c r="X4" s="1">
+        <v>20</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>141150048</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -1500,40 +1532,56 @@
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
-      <c r="W5" s="3"/>
-    </row>
-    <row r="6" spans="1:23" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="3"/>
+    </row>
+    <row r="6" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>151130087</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="E6" s="2">
+        <v>95</v>
+      </c>
       <c r="F6" s="2">
         <v>85</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="G6" s="2">
+        <v>95</v>
+      </c>
+      <c r="H6" s="2">
+        <v>100</v>
+      </c>
       <c r="I6" s="2">
         <v>90</v>
       </c>
       <c r="J6" s="2">
         <v>95</v>
       </c>
-      <c r="K6" s="2"/>
+      <c r="K6" s="2">
+        <v>95</v>
+      </c>
       <c r="L6" s="2">
         <v>95</v>
       </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
+      <c r="M6" s="2">
+        <v>100</v>
+      </c>
+      <c r="N6" s="2">
+        <v>90</v>
+      </c>
+      <c r="O6" s="2">
+        <v>90</v>
+      </c>
       <c r="P6" s="2">
         <v>80</v>
       </c>
@@ -1543,46 +1591,70 @@
       <c r="R6" s="2">
         <v>100</v>
       </c>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
+      <c r="S6" s="2">
+        <v>95</v>
+      </c>
+      <c r="T6" s="2">
+        <v>70</v>
+      </c>
       <c r="U6" s="2">
         <v>90</v>
       </c>
-      <c r="V6" s="2"/>
-      <c r="W6" s="3"/>
-    </row>
-    <row r="7" spans="1:23" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V6" s="2">
+        <v>100</v>
+      </c>
+      <c r="W6" s="2">
+        <v>95</v>
+      </c>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="3"/>
+    </row>
+    <row r="7" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>161015015</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="E7" s="2">
+        <v>95</v>
+      </c>
       <c r="F7" s="2">
         <v>100</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="G7" s="2">
+        <v>100</v>
+      </c>
+      <c r="H7" s="2">
+        <v>100</v>
+      </c>
       <c r="I7" s="2">
         <v>100</v>
       </c>
       <c r="J7" s="2">
         <v>95</v>
       </c>
-      <c r="K7" s="2"/>
+      <c r="K7" s="2">
+        <v>95</v>
+      </c>
       <c r="L7" s="2">
         <v>95</v>
       </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
+      <c r="M7" s="2">
+        <v>95</v>
+      </c>
+      <c r="N7" s="2">
+        <v>95</v>
+      </c>
+      <c r="O7" s="2">
+        <v>100</v>
+      </c>
       <c r="P7" s="2">
         <v>75</v>
       </c>
@@ -1592,46 +1664,70 @@
       <c r="R7" s="2">
         <v>100</v>
       </c>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
+      <c r="S7" s="2">
+        <v>90</v>
+      </c>
+      <c r="T7" s="2">
+        <v>95</v>
+      </c>
       <c r="U7" s="2">
         <v>100</v>
       </c>
-      <c r="V7" s="2"/>
-      <c r="W7" s="3"/>
-    </row>
-    <row r="8" spans="1:23" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V7" s="2">
+        <v>80</v>
+      </c>
+      <c r="W7" s="2">
+        <v>75</v>
+      </c>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="3"/>
+    </row>
+    <row r="8" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>161180120</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="E8" s="2">
+        <v>95</v>
+      </c>
       <c r="F8" s="2">
         <v>100</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="G8" s="2">
+        <v>85</v>
+      </c>
+      <c r="H8" s="2">
+        <v>100</v>
+      </c>
       <c r="I8" s="2">
         <v>85</v>
       </c>
       <c r="J8" s="2">
         <v>90</v>
       </c>
-      <c r="K8" s="2"/>
+      <c r="K8" s="2">
+        <v>100</v>
+      </c>
       <c r="L8" s="2">
         <v>85</v>
       </c>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
+      <c r="M8" s="2">
+        <v>95</v>
+      </c>
+      <c r="N8" s="2">
+        <v>85</v>
+      </c>
+      <c r="O8" s="8">
+        <v>0</v>
+      </c>
       <c r="P8" s="2">
         <v>90</v>
       </c>
@@ -1642,45 +1738,63 @@
         <v>95</v>
       </c>
       <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
+      <c r="T8" s="2">
+        <v>80</v>
+      </c>
       <c r="U8" s="2">
         <v>80</v>
       </c>
       <c r="V8" s="2"/>
-      <c r="W8" s="3"/>
-    </row>
-    <row r="9" spans="1:23" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="3"/>
+    </row>
+    <row r="9" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>171098518</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="E9" s="2">
+        <v>90</v>
+      </c>
       <c r="F9" s="2">
         <v>95</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="G9" s="2">
+        <v>90</v>
+      </c>
+      <c r="H9" s="2">
+        <v>95</v>
+      </c>
       <c r="I9" s="2">
         <v>95</v>
       </c>
       <c r="J9" s="2">
         <v>90</v>
       </c>
-      <c r="K9" s="2"/>
+      <c r="K9" s="2">
+        <v>70</v>
+      </c>
       <c r="L9" s="2">
         <v>80</v>
       </c>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
+      <c r="M9" s="2">
+        <v>80</v>
+      </c>
+      <c r="N9" s="2">
+        <v>80</v>
+      </c>
+      <c r="O9" s="2">
+        <v>90</v>
+      </c>
       <c r="P9" s="2">
         <v>75</v>
       </c>
@@ -1690,46 +1804,70 @@
       <c r="R9" s="2">
         <v>95</v>
       </c>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
+      <c r="S9" s="2">
+        <v>90</v>
+      </c>
+      <c r="T9" s="2">
+        <v>90</v>
+      </c>
       <c r="U9" s="2">
         <v>100</v>
       </c>
-      <c r="V9" s="2"/>
-      <c r="W9" s="3"/>
-    </row>
-    <row r="10" spans="1:23" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V9" s="2">
+        <v>100</v>
+      </c>
+      <c r="W9" s="2">
+        <v>95</v>
+      </c>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="3"/>
+    </row>
+    <row r="10" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>171830607</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="E10" s="2">
+        <v>95</v>
+      </c>
       <c r="F10" s="2">
         <v>100</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="G10" s="2">
+        <v>100</v>
+      </c>
+      <c r="H10" s="2">
+        <v>95</v>
+      </c>
       <c r="I10" s="2">
         <v>95</v>
       </c>
       <c r="J10" s="2">
         <v>100</v>
       </c>
-      <c r="K10" s="2"/>
+      <c r="K10" s="2">
+        <v>90</v>
+      </c>
       <c r="L10" s="2">
         <v>85</v>
       </c>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
+      <c r="M10" s="2">
+        <v>100</v>
+      </c>
+      <c r="N10" s="2">
+        <v>90</v>
+      </c>
+      <c r="O10" s="2">
+        <v>75</v>
+      </c>
       <c r="P10" s="2">
         <v>85</v>
       </c>
@@ -1739,46 +1877,70 @@
       <c r="R10" s="2">
         <v>100</v>
       </c>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
+      <c r="S10" s="2">
+        <v>85</v>
+      </c>
+      <c r="T10" s="2">
+        <v>95</v>
+      </c>
       <c r="U10" s="2">
         <v>95</v>
       </c>
-      <c r="V10" s="2"/>
-      <c r="W10" s="3"/>
-    </row>
-    <row r="11" spans="1:23" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V10" s="2">
+        <v>100</v>
+      </c>
+      <c r="W10" s="2">
+        <v>90</v>
+      </c>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="3"/>
+    </row>
+    <row r="11" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>171850034</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="E11" s="2">
+        <v>95</v>
+      </c>
       <c r="F11" s="2">
         <v>100</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="G11" s="2">
+        <v>100</v>
+      </c>
+      <c r="H11" s="2">
+        <v>95</v>
+      </c>
       <c r="I11" s="2">
         <v>95</v>
       </c>
       <c r="J11" s="2">
         <v>90</v>
       </c>
-      <c r="K11" s="2"/>
+      <c r="K11" s="2">
+        <v>100</v>
+      </c>
       <c r="L11" s="2">
         <v>90</v>
       </c>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
+      <c r="M11" s="2">
+        <v>100</v>
+      </c>
+      <c r="N11" s="2">
+        <v>100</v>
+      </c>
+      <c r="O11" s="2">
+        <v>85</v>
+      </c>
       <c r="P11" s="2">
         <v>70</v>
       </c>
@@ -1788,46 +1950,70 @@
       <c r="R11" s="2">
         <v>90</v>
       </c>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
+      <c r="S11" s="2">
+        <v>100</v>
+      </c>
+      <c r="T11" s="2">
+        <v>95</v>
+      </c>
       <c r="U11" s="2">
         <v>100</v>
       </c>
-      <c r="V11" s="2"/>
-      <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V11" s="2">
+        <v>100</v>
+      </c>
+      <c r="W11" s="2">
+        <v>95</v>
+      </c>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>171860002</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="E12" s="2">
+        <v>95</v>
+      </c>
       <c r="F12" s="2">
         <v>100</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="G12" s="2">
+        <v>95</v>
+      </c>
+      <c r="H12" s="2">
+        <v>100</v>
+      </c>
       <c r="I12" s="2">
         <v>85</v>
       </c>
       <c r="J12" s="2">
         <v>95</v>
       </c>
-      <c r="K12" s="2"/>
+      <c r="K12" s="2">
+        <v>95</v>
+      </c>
       <c r="L12" s="2">
         <v>90</v>
       </c>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
+      <c r="M12" s="2">
+        <v>100</v>
+      </c>
+      <c r="N12" s="2">
+        <v>95</v>
+      </c>
+      <c r="O12" s="2">
+        <v>95</v>
+      </c>
       <c r="P12" s="2">
         <v>85</v>
       </c>
@@ -1837,46 +2023,70 @@
       <c r="R12" s="2">
         <v>95</v>
       </c>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
+      <c r="S12" s="2">
+        <v>90</v>
+      </c>
+      <c r="T12" s="2">
+        <v>95</v>
+      </c>
       <c r="U12" s="2">
         <v>100</v>
       </c>
-      <c r="V12" s="2"/>
-      <c r="W12" s="3"/>
-    </row>
-    <row r="13" spans="1:23" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V12" s="2">
+        <v>100</v>
+      </c>
+      <c r="W12" s="2">
+        <v>95</v>
+      </c>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="3"/>
+    </row>
+    <row r="13" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>171860029</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="E13" s="2">
+        <v>95</v>
+      </c>
       <c r="F13" s="2">
         <v>100</v>
       </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="G13" s="2">
+        <v>100</v>
+      </c>
+      <c r="H13" s="2">
+        <v>100</v>
+      </c>
       <c r="I13" s="2">
         <v>90</v>
       </c>
       <c r="J13" s="2">
         <v>100</v>
       </c>
-      <c r="K13" s="2"/>
+      <c r="K13" s="2">
+        <v>100</v>
+      </c>
       <c r="L13" s="2">
         <v>95</v>
       </c>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
+      <c r="M13" s="2">
+        <v>100</v>
+      </c>
+      <c r="N13" s="2">
+        <v>100</v>
+      </c>
+      <c r="O13" s="2">
+        <v>95</v>
+      </c>
       <c r="P13" s="2">
         <v>90</v>
       </c>
@@ -1886,46 +2096,70 @@
       <c r="R13" s="2">
         <v>100</v>
       </c>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
+      <c r="S13" s="2">
+        <v>100</v>
+      </c>
+      <c r="T13" s="2">
+        <v>95</v>
+      </c>
       <c r="U13" s="2">
         <v>100</v>
       </c>
-      <c r="V13" s="2"/>
-      <c r="W13" s="3"/>
-    </row>
-    <row r="14" spans="1:23" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V13" s="2">
+        <v>100</v>
+      </c>
+      <c r="W13" s="2">
+        <v>100</v>
+      </c>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="3"/>
+    </row>
+    <row r="14" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>171860030</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="E14" s="2">
+        <v>95</v>
+      </c>
       <c r="F14" s="2">
         <v>100</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="G14" s="2">
+        <v>100</v>
+      </c>
+      <c r="H14" s="2">
+        <v>100</v>
+      </c>
       <c r="I14" s="2">
         <v>100</v>
       </c>
       <c r="J14" s="2">
         <v>100</v>
       </c>
-      <c r="K14" s="2"/>
+      <c r="K14" s="2">
+        <v>95</v>
+      </c>
       <c r="L14" s="2">
         <v>95</v>
       </c>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
+      <c r="M14" s="2">
+        <v>100</v>
+      </c>
+      <c r="N14" s="2">
+        <v>100</v>
+      </c>
+      <c r="O14" s="2">
+        <v>95</v>
+      </c>
       <c r="P14" s="2">
         <v>95</v>
       </c>
@@ -1935,46 +2169,70 @@
       <c r="R14" s="2">
         <v>95</v>
       </c>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
+      <c r="S14" s="2">
+        <v>95</v>
+      </c>
+      <c r="T14" s="2">
+        <v>80</v>
+      </c>
       <c r="U14" s="2">
         <v>95</v>
       </c>
-      <c r="V14" s="2"/>
-      <c r="W14" s="3"/>
-    </row>
-    <row r="15" spans="1:23" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V14" s="2">
+        <v>90</v>
+      </c>
+      <c r="W14" s="2">
+        <v>100</v>
+      </c>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="3"/>
+    </row>
+    <row r="15" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>171860031</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="E15" s="2">
+        <v>95</v>
+      </c>
       <c r="F15" s="2">
         <v>90</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="G15" s="2">
+        <v>90</v>
+      </c>
+      <c r="H15" s="2">
+        <v>95</v>
+      </c>
       <c r="I15" s="2">
         <v>70</v>
       </c>
       <c r="J15" s="2">
         <v>100</v>
       </c>
-      <c r="K15" s="2"/>
+      <c r="K15" s="2">
+        <v>90</v>
+      </c>
       <c r="L15" s="2">
         <v>90</v>
       </c>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+      <c r="M15" s="2">
+        <v>100</v>
+      </c>
+      <c r="N15" s="2">
+        <v>100</v>
+      </c>
+      <c r="O15" s="2">
+        <v>95</v>
+      </c>
       <c r="P15" s="2">
         <v>95</v>
       </c>
@@ -1984,46 +2242,70 @@
       <c r="R15" s="2">
         <v>95</v>
       </c>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
+      <c r="S15" s="2">
+        <v>95</v>
+      </c>
+      <c r="T15" s="2">
+        <v>85</v>
+      </c>
       <c r="U15" s="2">
         <v>90</v>
       </c>
-      <c r="V15" s="2"/>
-      <c r="W15" s="3"/>
-    </row>
-    <row r="16" spans="1:23" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V15" s="2">
+        <v>100</v>
+      </c>
+      <c r="W15" s="2">
+        <v>95</v>
+      </c>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="3"/>
+    </row>
+    <row r="16" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>171860514</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="E16" s="2">
+        <v>90</v>
+      </c>
       <c r="F16" s="2">
         <v>100</v>
       </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="G16" s="2">
+        <v>95</v>
+      </c>
+      <c r="H16" s="2">
+        <v>100</v>
+      </c>
       <c r="I16" s="2">
         <v>90</v>
       </c>
       <c r="J16" s="2">
         <v>100</v>
       </c>
-      <c r="K16" s="2"/>
+      <c r="K16" s="2">
+        <v>95</v>
+      </c>
       <c r="L16" s="2">
         <v>95</v>
       </c>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+      <c r="M16" s="2">
+        <v>95</v>
+      </c>
+      <c r="N16" s="2">
+        <v>100</v>
+      </c>
+      <c r="O16" s="2">
+        <v>85</v>
+      </c>
       <c r="P16" s="2">
         <v>80</v>
       </c>
@@ -2033,46 +2315,70 @@
       <c r="R16" s="2">
         <v>100</v>
       </c>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
+      <c r="S16" s="2">
+        <v>95</v>
+      </c>
+      <c r="T16" s="2">
+        <v>100</v>
+      </c>
       <c r="U16" s="2">
         <v>100</v>
       </c>
-      <c r="V16" s="2"/>
-      <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="1:23" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V16" s="2">
+        <v>95</v>
+      </c>
+      <c r="W16" s="2">
+        <v>100</v>
+      </c>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>171860515</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="E17" s="2">
+        <v>90</v>
+      </c>
       <c r="F17" s="2">
         <v>100</v>
       </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+      <c r="G17" s="2">
+        <v>90</v>
+      </c>
+      <c r="H17" s="2">
+        <v>95</v>
+      </c>
       <c r="I17" s="2">
         <v>85</v>
       </c>
       <c r="J17" s="2">
         <v>90</v>
       </c>
-      <c r="K17" s="2"/>
+      <c r="K17" s="2">
+        <v>85</v>
+      </c>
       <c r="L17" s="2">
         <v>80</v>
       </c>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+      <c r="M17" s="2">
+        <v>95</v>
+      </c>
+      <c r="N17" s="2">
+        <v>95</v>
+      </c>
+      <c r="O17" s="2">
+        <v>70</v>
+      </c>
       <c r="P17" s="2">
         <v>80</v>
       </c>
@@ -2082,44 +2388,68 @@
       <c r="R17" s="2">
         <v>90</v>
       </c>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
+      <c r="S17" s="2">
+        <v>85</v>
+      </c>
+      <c r="T17" s="2">
+        <v>80</v>
+      </c>
       <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="3"/>
-    </row>
-    <row r="18" spans="1:23" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V17" s="2">
+        <v>90</v>
+      </c>
+      <c r="W17" s="2">
+        <v>85</v>
+      </c>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="3"/>
+    </row>
+    <row r="18" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>171860516</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="E18" s="2">
+        <v>95</v>
+      </c>
       <c r="F18" s="2">
         <v>100</v>
       </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+      <c r="G18" s="2">
+        <v>100</v>
+      </c>
+      <c r="H18" s="2">
+        <v>100</v>
+      </c>
       <c r="I18" s="2">
         <v>100</v>
       </c>
       <c r="J18" s="2">
         <v>95</v>
       </c>
-      <c r="K18" s="2"/>
+      <c r="K18" s="2">
+        <v>100</v>
+      </c>
       <c r="L18" s="2">
         <v>95</v>
       </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+      <c r="M18" s="2">
+        <v>100</v>
+      </c>
+      <c r="N18" s="2">
+        <v>100</v>
+      </c>
+      <c r="O18" s="2">
+        <v>100</v>
+      </c>
       <c r="P18" s="2">
         <v>95</v>
       </c>
@@ -2129,46 +2459,70 @@
       <c r="R18" s="2">
         <v>100</v>
       </c>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
+      <c r="S18" s="2">
+        <v>95</v>
+      </c>
+      <c r="T18" s="2">
+        <v>95</v>
+      </c>
       <c r="U18" s="2">
         <v>95</v>
       </c>
-      <c r="V18" s="2"/>
-      <c r="W18" s="3"/>
-    </row>
-    <row r="19" spans="1:23" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V18" s="2">
+        <v>100</v>
+      </c>
+      <c r="W18" s="2">
+        <v>100</v>
+      </c>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="3"/>
+    </row>
+    <row r="19" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>171860519</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="E19" s="2">
+        <v>95</v>
+      </c>
       <c r="F19" s="2">
         <v>95</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="G19" s="2">
+        <v>100</v>
+      </c>
+      <c r="H19" s="2">
+        <v>100</v>
+      </c>
       <c r="I19" s="2">
         <v>100</v>
       </c>
       <c r="J19" s="2">
         <v>95</v>
       </c>
-      <c r="K19" s="2"/>
+      <c r="K19" s="2">
+        <v>95</v>
+      </c>
       <c r="L19" s="2">
         <v>100</v>
       </c>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+      <c r="M19" s="2">
+        <v>100</v>
+      </c>
+      <c r="N19" s="2">
+        <v>90</v>
+      </c>
+      <c r="O19" s="2">
+        <v>95</v>
+      </c>
       <c r="P19" s="2">
         <v>95</v>
       </c>
@@ -2178,46 +2532,70 @@
       <c r="R19" s="2">
         <v>95</v>
       </c>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
+      <c r="S19" s="2">
+        <v>95</v>
+      </c>
+      <c r="T19" s="2">
+        <v>90</v>
+      </c>
       <c r="U19" s="2">
         <v>95</v>
       </c>
-      <c r="V19" s="2"/>
-      <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="1:23" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V19" s="2">
+        <v>90</v>
+      </c>
+      <c r="W19" s="2">
+        <v>90</v>
+      </c>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>171860521</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="E20" s="2">
+        <v>100</v>
+      </c>
       <c r="F20" s="2">
         <v>90</v>
       </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="G20" s="2">
+        <v>100</v>
+      </c>
+      <c r="H20" s="2">
+        <v>100</v>
+      </c>
       <c r="I20" s="2">
         <v>100</v>
       </c>
       <c r="J20" s="2">
         <v>95</v>
       </c>
-      <c r="K20" s="2"/>
+      <c r="K20" s="2">
+        <v>100</v>
+      </c>
       <c r="L20" s="2">
         <v>95</v>
       </c>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+      <c r="M20" s="2">
+        <v>100</v>
+      </c>
+      <c r="N20" s="2">
+        <v>100</v>
+      </c>
+      <c r="O20" s="2">
+        <v>85</v>
+      </c>
       <c r="P20" s="2">
         <v>90</v>
       </c>
@@ -2227,46 +2605,70 @@
       <c r="R20" s="2">
         <v>100</v>
       </c>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
+      <c r="S20" s="2">
+        <v>100</v>
+      </c>
+      <c r="T20" s="2">
+        <v>95</v>
+      </c>
       <c r="U20" s="2">
         <v>90</v>
       </c>
-      <c r="V20" s="2"/>
-      <c r="W20" s="3"/>
-    </row>
-    <row r="21" spans="1:23" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V20" s="2">
+        <v>100</v>
+      </c>
+      <c r="W20" s="2">
+        <v>100</v>
+      </c>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="3"/>
+    </row>
+    <row r="21" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>171860522</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="E21" s="2">
+        <v>95</v>
+      </c>
       <c r="F21" s="2">
         <v>85</v>
       </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
+      <c r="G21" s="2">
+        <v>100</v>
+      </c>
+      <c r="H21" s="2">
+        <v>100</v>
+      </c>
       <c r="I21" s="2">
         <v>100</v>
       </c>
       <c r="J21" s="2">
         <v>85</v>
       </c>
-      <c r="K21" s="2"/>
+      <c r="K21" s="2">
+        <v>95</v>
+      </c>
       <c r="L21" s="2">
         <v>95</v>
       </c>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
+      <c r="M21" s="2">
+        <v>95</v>
+      </c>
+      <c r="N21" s="2">
+        <v>100</v>
+      </c>
+      <c r="O21" s="2">
+        <v>95</v>
+      </c>
       <c r="P21" s="2">
         <v>40</v>
       </c>
@@ -2276,46 +2678,70 @@
       <c r="R21" s="2">
         <v>95</v>
       </c>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
+      <c r="S21" s="2">
+        <v>90</v>
+      </c>
+      <c r="T21" s="2">
+        <v>90</v>
+      </c>
       <c r="U21" s="2">
         <v>90</v>
       </c>
-      <c r="V21" s="2"/>
-      <c r="W21" s="3"/>
-    </row>
-    <row r="22" spans="1:23" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V21" s="2">
+        <v>95</v>
+      </c>
+      <c r="W21" s="2">
+        <v>90</v>
+      </c>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="3"/>
+    </row>
+    <row r="22" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>171860523</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="E22" s="2">
+        <v>95</v>
+      </c>
       <c r="F22" s="2">
         <v>100</v>
       </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+      <c r="G22" s="2">
+        <v>100</v>
+      </c>
+      <c r="H22" s="2">
+        <v>100</v>
+      </c>
       <c r="I22" s="2">
         <v>100</v>
       </c>
       <c r="J22" s="2">
         <v>100</v>
       </c>
-      <c r="K22" s="2"/>
+      <c r="K22" s="2">
+        <v>95</v>
+      </c>
       <c r="L22" s="2">
         <v>95</v>
       </c>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
+      <c r="M22" s="2">
+        <v>100</v>
+      </c>
+      <c r="N22" s="2">
+        <v>95</v>
+      </c>
+      <c r="O22" s="2">
+        <v>90</v>
+      </c>
       <c r="P22" s="2">
         <v>90</v>
       </c>
@@ -2331,40 +2757,56 @@
         <v>80</v>
       </c>
       <c r="V22" s="2"/>
-      <c r="W22" s="3"/>
-    </row>
-    <row r="23" spans="1:23" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="3"/>
+    </row>
+    <row r="23" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>171860524</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="E23" s="2">
+        <v>95</v>
+      </c>
       <c r="F23" s="2">
         <v>90</v>
       </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+      <c r="G23" s="2">
+        <v>90</v>
+      </c>
+      <c r="H23" s="2">
+        <v>100</v>
+      </c>
       <c r="I23" s="2">
         <v>95</v>
       </c>
       <c r="J23" s="2">
         <v>90</v>
       </c>
-      <c r="K23" s="2"/>
+      <c r="K23" s="2">
+        <v>95</v>
+      </c>
       <c r="L23" s="2">
         <v>95</v>
       </c>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+      <c r="M23" s="2">
+        <v>100</v>
+      </c>
+      <c r="N23" s="2">
+        <v>100</v>
+      </c>
+      <c r="O23" s="2">
+        <v>80</v>
+      </c>
       <c r="P23" s="2">
         <v>85</v>
       </c>
@@ -2374,46 +2816,70 @@
       <c r="R23" s="2">
         <v>100</v>
       </c>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
+      <c r="S23" s="2">
+        <v>95</v>
+      </c>
+      <c r="T23" s="2">
+        <v>85</v>
+      </c>
       <c r="U23" s="2">
         <v>90</v>
       </c>
-      <c r="V23" s="2"/>
-      <c r="W23" s="3"/>
-    </row>
-    <row r="24" spans="1:23" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V23" s="2">
+        <v>100</v>
+      </c>
+      <c r="W23" s="2">
+        <v>95</v>
+      </c>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="3"/>
+    </row>
+    <row r="24" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>171860526</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="E24" s="2">
+        <v>95</v>
+      </c>
       <c r="F24" s="2">
         <v>100</v>
       </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
+      <c r="G24" s="2">
+        <v>95</v>
+      </c>
+      <c r="H24" s="2">
+        <v>100</v>
+      </c>
       <c r="I24" s="2">
         <v>100</v>
       </c>
       <c r="J24" s="2">
         <v>100</v>
       </c>
-      <c r="K24" s="2"/>
+      <c r="K24" s="2">
+        <v>100</v>
+      </c>
       <c r="L24" s="2">
         <v>100</v>
       </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+      <c r="M24" s="2">
+        <v>100</v>
+      </c>
+      <c r="N24" s="2">
+        <v>100</v>
+      </c>
+      <c r="O24" s="2">
+        <v>85</v>
+      </c>
       <c r="P24" s="2">
         <v>85</v>
       </c>
@@ -2423,46 +2889,70 @@
       <c r="R24" s="2">
         <v>90</v>
       </c>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
+      <c r="S24" s="2">
+        <v>100</v>
+      </c>
+      <c r="T24" s="2">
+        <v>90</v>
+      </c>
       <c r="U24" s="2">
         <v>95</v>
       </c>
-      <c r="V24" s="2"/>
-      <c r="W24" s="3"/>
-    </row>
-    <row r="25" spans="1:23" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="W24" s="2">
+        <v>90</v>
+      </c>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="3"/>
+    </row>
+    <row r="25" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>171860528</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E25" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="E25" s="2">
+        <v>95</v>
+      </c>
       <c r="F25" s="2">
         <v>100</v>
       </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
+      <c r="G25" s="2">
+        <v>95</v>
+      </c>
+      <c r="H25" s="2">
+        <v>100</v>
+      </c>
       <c r="I25" s="2">
         <v>95</v>
       </c>
       <c r="J25" s="2">
         <v>95</v>
       </c>
-      <c r="K25" s="2"/>
+      <c r="K25" s="2">
+        <v>100</v>
+      </c>
       <c r="L25" s="2">
         <v>90</v>
       </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+      <c r="M25" s="2">
+        <v>100</v>
+      </c>
+      <c r="N25" s="2">
+        <v>100</v>
+      </c>
+      <c r="O25" s="2">
+        <v>90</v>
+      </c>
       <c r="P25" s="2">
         <v>95</v>
       </c>
@@ -2472,46 +2962,70 @@
       <c r="R25" s="2">
         <v>95</v>
       </c>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
+      <c r="S25" s="2">
+        <v>100</v>
+      </c>
+      <c r="T25" s="2">
+        <v>85</v>
+      </c>
       <c r="U25" s="2">
         <v>85</v>
       </c>
-      <c r="V25" s="2"/>
-      <c r="W25" s="3"/>
-    </row>
-    <row r="26" spans="1:23" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V25" s="2">
+        <v>90</v>
+      </c>
+      <c r="W25" s="2">
+        <v>95</v>
+      </c>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="3"/>
+    </row>
+    <row r="26" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>171860530</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="E26" s="2">
+        <v>100</v>
+      </c>
       <c r="F26" s="2">
         <v>100</v>
       </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
+      <c r="G26" s="2">
+        <v>100</v>
+      </c>
+      <c r="H26" s="2">
+        <v>100</v>
+      </c>
       <c r="I26" s="2">
         <v>95</v>
       </c>
       <c r="J26" s="2">
         <v>95</v>
       </c>
-      <c r="K26" s="2"/>
+      <c r="K26" s="2">
+        <v>95</v>
+      </c>
       <c r="L26" s="2">
         <v>95</v>
       </c>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+      <c r="M26" s="2">
+        <v>100</v>
+      </c>
+      <c r="N26" s="2">
+        <v>95</v>
+      </c>
+      <c r="O26" s="2">
+        <v>95</v>
+      </c>
       <c r="P26" s="2">
         <v>85</v>
       </c>
@@ -2521,46 +3035,70 @@
       <c r="R26" s="2">
         <v>100</v>
       </c>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
+      <c r="S26" s="2">
+        <v>100</v>
+      </c>
+      <c r="T26" s="2">
+        <v>100</v>
+      </c>
       <c r="U26" s="2">
         <v>100</v>
       </c>
-      <c r="V26" s="2"/>
-      <c r="W26" s="3"/>
-    </row>
-    <row r="27" spans="1:23" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V26" s="2">
+        <v>100</v>
+      </c>
+      <c r="W26" s="2">
+        <v>100</v>
+      </c>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="3"/>
+    </row>
+    <row r="27" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>171860541</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="E27" s="2">
+        <v>95</v>
+      </c>
       <c r="F27" s="2">
         <v>100</v>
       </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+      <c r="G27" s="2">
+        <v>100</v>
+      </c>
+      <c r="H27" s="2">
+        <v>100</v>
+      </c>
       <c r="I27" s="2">
         <v>95</v>
       </c>
       <c r="J27" s="2">
         <v>90</v>
       </c>
-      <c r="K27" s="2"/>
+      <c r="K27" s="2">
+        <v>100</v>
+      </c>
       <c r="L27" s="2">
         <v>95</v>
       </c>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+      <c r="M27" s="2">
+        <v>100</v>
+      </c>
+      <c r="N27" s="2">
+        <v>95</v>
+      </c>
+      <c r="O27" s="2">
+        <v>100</v>
+      </c>
       <c r="P27" s="2">
         <v>85</v>
       </c>
@@ -2570,46 +3108,70 @@
       <c r="R27" s="2">
         <v>95</v>
       </c>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
+      <c r="S27" s="2">
+        <v>85</v>
+      </c>
+      <c r="T27" s="2">
+        <v>90</v>
+      </c>
       <c r="U27" s="2">
         <v>100</v>
       </c>
-      <c r="V27" s="2"/>
-      <c r="W27" s="3"/>
-    </row>
-    <row r="28" spans="1:23" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V27" s="2">
+        <v>100</v>
+      </c>
+      <c r="W27" s="2">
+        <v>100</v>
+      </c>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="3"/>
+    </row>
+    <row r="28" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>171860542</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E28" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="E28" s="2">
+        <v>95</v>
+      </c>
       <c r="F28" s="2">
         <v>95</v>
       </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+      <c r="G28" s="2">
+        <v>95</v>
+      </c>
+      <c r="H28" s="2">
+        <v>100</v>
+      </c>
       <c r="I28" s="2">
         <v>100</v>
       </c>
       <c r="J28" s="2">
         <v>90</v>
       </c>
-      <c r="K28" s="2"/>
+      <c r="K28" s="2">
+        <v>100</v>
+      </c>
       <c r="L28" s="2">
         <v>95</v>
       </c>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+      <c r="M28" s="2">
+        <v>100</v>
+      </c>
+      <c r="N28" s="2">
+        <v>100</v>
+      </c>
+      <c r="O28" s="2">
+        <v>95</v>
+      </c>
       <c r="P28" s="2">
         <v>70</v>
       </c>
@@ -2619,46 +3181,70 @@
       <c r="R28" s="2">
         <v>100</v>
       </c>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
+      <c r="S28" s="2">
+        <v>90</v>
+      </c>
+      <c r="T28" s="2">
+        <v>80</v>
+      </c>
       <c r="U28" s="2">
         <v>95</v>
       </c>
-      <c r="V28" s="2"/>
-      <c r="W28" s="3"/>
-    </row>
-    <row r="29" spans="1:23" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V28" s="2">
+        <v>95</v>
+      </c>
+      <c r="W28" s="2">
+        <v>90</v>
+      </c>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="3"/>
+    </row>
+    <row r="29" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>171860545</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E29" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="E29" s="2">
+        <v>95</v>
+      </c>
       <c r="F29" s="2">
         <v>100</v>
       </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+      <c r="G29" s="2">
+        <v>95</v>
+      </c>
+      <c r="H29" s="2">
+        <v>100</v>
+      </c>
       <c r="I29" s="2">
         <v>95</v>
       </c>
       <c r="J29" s="2">
         <v>90</v>
       </c>
-      <c r="K29" s="2"/>
+      <c r="K29" s="2">
+        <v>100</v>
+      </c>
       <c r="L29" s="2">
         <v>100</v>
       </c>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+      <c r="M29" s="2">
+        <v>100</v>
+      </c>
+      <c r="N29" s="2">
+        <v>95</v>
+      </c>
+      <c r="O29" s="2">
+        <v>95</v>
+      </c>
       <c r="P29" s="2">
         <v>85</v>
       </c>
@@ -2668,46 +3254,70 @@
       <c r="R29" s="2">
         <v>90</v>
       </c>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
+      <c r="S29" s="2">
+        <v>95</v>
+      </c>
+      <c r="T29" s="2">
+        <v>100</v>
+      </c>
       <c r="U29" s="2">
         <v>95</v>
       </c>
-      <c r="V29" s="2"/>
-      <c r="W29" s="3"/>
-    </row>
-    <row r="30" spans="1:23" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V29" s="2">
+        <v>100</v>
+      </c>
+      <c r="W29" s="2">
+        <v>100</v>
+      </c>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="3"/>
+    </row>
+    <row r="30" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>171860546</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E30" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="E30" s="2">
+        <v>90</v>
+      </c>
       <c r="F30" s="2">
         <v>100</v>
       </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
+      <c r="G30" s="2">
+        <v>95</v>
+      </c>
+      <c r="H30" s="2">
+        <v>100</v>
+      </c>
       <c r="I30" s="2">
         <v>85</v>
       </c>
       <c r="J30" s="2">
         <v>90</v>
       </c>
-      <c r="K30" s="2"/>
+      <c r="K30" s="2">
+        <v>95</v>
+      </c>
       <c r="L30" s="2">
         <v>90</v>
       </c>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+      <c r="M30" s="2">
+        <v>100</v>
+      </c>
+      <c r="N30" s="2">
+        <v>95</v>
+      </c>
+      <c r="O30" s="2">
+        <v>85</v>
+      </c>
       <c r="P30" s="2">
         <v>85</v>
       </c>
@@ -2717,46 +3327,70 @@
       <c r="R30" s="2">
         <v>90</v>
       </c>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
+      <c r="S30" s="2">
+        <v>90</v>
+      </c>
+      <c r="T30" s="2">
+        <v>85</v>
+      </c>
       <c r="U30" s="2">
         <v>90</v>
       </c>
-      <c r="V30" s="2"/>
-      <c r="W30" s="3"/>
-    </row>
-    <row r="31" spans="1:23" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V30" s="2">
+        <v>90</v>
+      </c>
+      <c r="W30" s="2">
+        <v>85</v>
+      </c>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="3"/>
+    </row>
+    <row r="31" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>171860547</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E31" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="E31" s="2">
+        <v>95</v>
+      </c>
       <c r="F31" s="2">
         <v>100</v>
       </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
+      <c r="G31" s="2">
+        <v>100</v>
+      </c>
+      <c r="H31" s="2">
+        <v>95</v>
+      </c>
       <c r="I31" s="2">
         <v>95</v>
       </c>
       <c r="J31" s="2">
         <v>95</v>
       </c>
-      <c r="K31" s="2"/>
+      <c r="K31" s="2">
+        <v>100</v>
+      </c>
       <c r="L31" s="2">
         <v>100</v>
       </c>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
+      <c r="M31" s="2">
+        <v>100</v>
+      </c>
+      <c r="N31" s="2">
+        <v>100</v>
+      </c>
+      <c r="O31" s="2">
+        <v>95</v>
+      </c>
       <c r="P31" s="2">
         <v>85</v>
       </c>
@@ -2766,46 +3400,70 @@
       <c r="R31" s="2">
         <v>90</v>
       </c>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
+      <c r="S31" s="2">
+        <v>95</v>
+      </c>
+      <c r="T31" s="2">
+        <v>95</v>
+      </c>
       <c r="U31" s="2">
         <v>90</v>
       </c>
-      <c r="V31" s="2"/>
-      <c r="W31" s="3"/>
-    </row>
-    <row r="32" spans="1:23" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V31" s="2">
+        <v>95</v>
+      </c>
+      <c r="W31" s="2">
+        <v>100</v>
+      </c>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="3"/>
+    </row>
+    <row r="32" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>171860557</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E32" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="E32" s="2">
+        <v>90</v>
+      </c>
       <c r="F32" s="2">
         <v>100</v>
       </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
+      <c r="G32" s="2">
+        <v>100</v>
+      </c>
+      <c r="H32" s="2">
+        <v>95</v>
+      </c>
       <c r="I32" s="2">
         <v>90</v>
       </c>
       <c r="J32" s="2">
         <v>90</v>
       </c>
-      <c r="K32" s="2"/>
+      <c r="K32" s="2">
+        <v>95</v>
+      </c>
       <c r="L32" s="2">
         <v>100</v>
       </c>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
+      <c r="M32" s="2">
+        <v>90</v>
+      </c>
+      <c r="N32" s="2">
+        <v>95</v>
+      </c>
+      <c r="O32" s="2">
+        <v>75</v>
+      </c>
       <c r="P32" s="2">
         <v>40</v>
       </c>
@@ -2815,46 +3473,70 @@
       <c r="R32" s="2">
         <v>90</v>
       </c>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
+      <c r="S32" s="2">
+        <v>80</v>
+      </c>
+      <c r="T32" s="2">
+        <v>95</v>
+      </c>
       <c r="U32" s="2">
         <v>100</v>
       </c>
-      <c r="V32" s="2"/>
-      <c r="W32" s="3"/>
-    </row>
-    <row r="33" spans="1:23" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V32" s="2">
+        <v>100</v>
+      </c>
+      <c r="W32" s="2">
+        <v>95</v>
+      </c>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="3"/>
+    </row>
+    <row r="33" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>171860560</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E33" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="E33" s="2">
+        <v>95</v>
+      </c>
       <c r="F33" s="2">
         <v>100</v>
       </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
+      <c r="G33" s="2">
+        <v>100</v>
+      </c>
+      <c r="H33" s="2">
+        <v>95</v>
+      </c>
       <c r="I33" s="2">
         <v>95</v>
       </c>
       <c r="J33" s="2">
         <v>100</v>
       </c>
-      <c r="K33" s="2"/>
+      <c r="K33" s="2">
+        <v>100</v>
+      </c>
       <c r="L33" s="2">
         <v>95</v>
       </c>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+      <c r="M33" s="2">
+        <v>100</v>
+      </c>
+      <c r="N33" s="2">
+        <v>90</v>
+      </c>
+      <c r="O33" s="2">
+        <v>90</v>
+      </c>
       <c r="P33" s="2">
         <v>70</v>
       </c>
@@ -2864,44 +3546,66 @@
       <c r="R33" s="2">
         <v>95</v>
       </c>
-      <c r="S33" s="2"/>
+      <c r="S33" s="2">
+        <v>90</v>
+      </c>
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
-      <c r="V33" s="2"/>
-      <c r="W33" s="3"/>
-    </row>
-    <row r="34" spans="1:23" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V33" s="2">
+        <v>90</v>
+      </c>
+      <c r="W33" s="2">
+        <v>100</v>
+      </c>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="3"/>
+    </row>
+    <row r="34" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>171860562</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E34" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="E34" s="2">
+        <v>95</v>
+      </c>
       <c r="F34" s="2">
         <v>100</v>
       </c>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
+      <c r="G34" s="2">
+        <v>100</v>
+      </c>
+      <c r="H34" s="2">
+        <v>100</v>
+      </c>
       <c r="I34" s="2">
         <v>100</v>
       </c>
       <c r="J34" s="2">
         <v>95</v>
       </c>
-      <c r="K34" s="2"/>
+      <c r="K34" s="2">
+        <v>100</v>
+      </c>
       <c r="L34" s="2">
         <v>85</v>
       </c>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+      <c r="M34" s="2">
+        <v>100</v>
+      </c>
+      <c r="N34" s="2">
+        <v>95</v>
+      </c>
+      <c r="O34" s="2">
+        <v>85</v>
+      </c>
       <c r="P34" s="2">
         <v>85</v>
       </c>
@@ -2911,46 +3615,70 @@
       <c r="R34" s="2">
         <v>90</v>
       </c>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
+      <c r="S34" s="2">
+        <v>75</v>
+      </c>
+      <c r="T34" s="2">
+        <v>95</v>
+      </c>
       <c r="U34" s="2">
         <v>95</v>
       </c>
-      <c r="V34" s="2"/>
-      <c r="W34" s="3"/>
-    </row>
-    <row r="35" spans="1:23" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V34" s="2">
+        <v>90</v>
+      </c>
+      <c r="W34" s="2">
+        <v>100</v>
+      </c>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="3"/>
+    </row>
+    <row r="35" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>171860563</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E35" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="E35" s="2">
+        <v>90</v>
+      </c>
       <c r="F35" s="2">
         <v>100</v>
       </c>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
+      <c r="G35" s="2">
+        <v>100</v>
+      </c>
+      <c r="H35" s="2">
+        <v>95</v>
+      </c>
       <c r="I35" s="2">
         <v>100</v>
       </c>
       <c r="J35" s="2">
         <v>100</v>
       </c>
-      <c r="K35" s="2"/>
+      <c r="K35" s="2">
+        <v>100</v>
+      </c>
       <c r="L35" s="2">
         <v>100</v>
       </c>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+      <c r="M35" s="2">
+        <v>100</v>
+      </c>
+      <c r="N35" s="2">
+        <v>95</v>
+      </c>
+      <c r="O35" s="2">
+        <v>95</v>
+      </c>
       <c r="P35" s="2">
         <v>90</v>
       </c>
@@ -2960,46 +3688,70 @@
       <c r="R35" s="2">
         <v>90</v>
       </c>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
+      <c r="S35" s="2">
+        <v>90</v>
+      </c>
+      <c r="T35" s="2">
+        <v>95</v>
+      </c>
       <c r="U35" s="2">
         <v>100</v>
       </c>
-      <c r="V35" s="2"/>
-      <c r="W35" s="3"/>
-    </row>
-    <row r="36" spans="1:23" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V35" s="2">
+        <v>100</v>
+      </c>
+      <c r="W35" s="2">
+        <v>95</v>
+      </c>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="3"/>
+    </row>
+    <row r="36" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>171860574</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E36" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="E36" s="2">
+        <v>95</v>
+      </c>
       <c r="F36" s="2">
         <v>100</v>
       </c>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
+      <c r="G36" s="2">
+        <v>95</v>
+      </c>
+      <c r="H36" s="2">
+        <v>100</v>
+      </c>
       <c r="I36" s="2">
         <v>100</v>
       </c>
       <c r="J36" s="2">
         <v>100</v>
       </c>
-      <c r="K36" s="2"/>
+      <c r="K36" s="2">
+        <v>95</v>
+      </c>
       <c r="L36" s="2">
         <v>100</v>
       </c>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+      <c r="M36" s="2">
+        <v>100</v>
+      </c>
+      <c r="N36" s="2">
+        <v>100</v>
+      </c>
+      <c r="O36" s="2">
+        <v>90</v>
+      </c>
       <c r="P36" s="2">
         <v>90</v>
       </c>
@@ -3009,46 +3761,70 @@
       <c r="R36" s="2">
         <v>95</v>
       </c>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
+      <c r="S36" s="2">
+        <v>90</v>
+      </c>
+      <c r="T36" s="2">
+        <v>90</v>
+      </c>
       <c r="U36" s="2">
         <v>90</v>
       </c>
-      <c r="V36" s="2"/>
-      <c r="W36" s="3"/>
-    </row>
-    <row r="37" spans="1:23" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V36" s="2">
+        <v>100</v>
+      </c>
+      <c r="W36" s="2">
+        <v>95</v>
+      </c>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="3"/>
+    </row>
+    <row r="37" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>171860578</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E37" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="E37" s="2">
+        <v>95</v>
+      </c>
       <c r="F37" s="2">
         <v>95</v>
       </c>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
+      <c r="G37" s="2">
+        <v>100</v>
+      </c>
+      <c r="H37" s="2">
+        <v>100</v>
+      </c>
       <c r="I37" s="2">
         <v>95</v>
       </c>
       <c r="J37" s="2">
         <v>100</v>
       </c>
-      <c r="K37" s="2"/>
+      <c r="K37" s="2">
+        <v>100</v>
+      </c>
       <c r="L37" s="2">
         <v>95</v>
       </c>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+      <c r="M37" s="2">
+        <v>100</v>
+      </c>
+      <c r="N37" s="2">
+        <v>100</v>
+      </c>
+      <c r="O37" s="2">
+        <v>100</v>
+      </c>
       <c r="P37" s="2">
         <v>90</v>
       </c>
@@ -3058,46 +3834,70 @@
       <c r="R37" s="2">
         <v>90</v>
       </c>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
+      <c r="S37" s="2">
+        <v>95</v>
+      </c>
+      <c r="T37" s="2">
+        <v>95</v>
+      </c>
       <c r="U37" s="2">
         <v>95</v>
       </c>
-      <c r="V37" s="2"/>
-      <c r="W37" s="3"/>
-    </row>
-    <row r="38" spans="1:23" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V37" s="2">
+        <v>100</v>
+      </c>
+      <c r="W37" s="2">
+        <v>100</v>
+      </c>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="3"/>
+    </row>
+    <row r="38" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>171860579</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E38" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="E38" s="2">
+        <v>95</v>
+      </c>
       <c r="F38" s="2">
         <v>100</v>
       </c>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
+      <c r="G38" s="2">
+        <v>100</v>
+      </c>
+      <c r="H38" s="2">
+        <v>100</v>
+      </c>
       <c r="I38" s="2">
         <v>100</v>
       </c>
       <c r="J38" s="2">
         <v>100</v>
       </c>
-      <c r="K38" s="2"/>
+      <c r="K38" s="2">
+        <v>100</v>
+      </c>
       <c r="L38" s="2">
         <v>100</v>
       </c>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+      <c r="M38" s="2">
+        <v>100</v>
+      </c>
+      <c r="N38" s="2">
+        <v>100</v>
+      </c>
+      <c r="O38" s="2">
+        <v>95</v>
+      </c>
       <c r="P38" s="2">
         <v>95</v>
       </c>
@@ -3107,46 +3907,70 @@
       <c r="R38" s="2">
         <v>100</v>
       </c>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
+      <c r="S38" s="2">
+        <v>95</v>
+      </c>
+      <c r="T38" s="2">
+        <v>95</v>
+      </c>
       <c r="U38" s="2">
         <v>95</v>
       </c>
-      <c r="V38" s="2"/>
-      <c r="W38" s="3"/>
-    </row>
-    <row r="39" spans="1:23" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V38" s="2">
+        <v>100</v>
+      </c>
+      <c r="W38" s="2">
+        <v>100</v>
+      </c>
+      <c r="X38" s="2"/>
+      <c r="Y38" s="3"/>
+    </row>
+    <row r="39" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>171860583</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E39" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="E39" s="2">
+        <v>95</v>
+      </c>
       <c r="F39" s="2">
         <v>100</v>
       </c>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
+      <c r="G39" s="2">
+        <v>95</v>
+      </c>
+      <c r="H39" s="2">
+        <v>100</v>
+      </c>
       <c r="I39" s="2">
         <v>100</v>
       </c>
       <c r="J39" s="2">
         <v>95</v>
       </c>
-      <c r="K39" s="2"/>
+      <c r="K39" s="2">
+        <v>90</v>
+      </c>
       <c r="L39" s="2">
         <v>100</v>
       </c>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
+      <c r="M39" s="2">
+        <v>100</v>
+      </c>
+      <c r="N39" s="2">
+        <v>100</v>
+      </c>
+      <c r="O39" s="2">
+        <v>95</v>
+      </c>
       <c r="P39" s="2">
         <v>80</v>
       </c>
@@ -3156,87 +3980,137 @@
       <c r="R39" s="2">
         <v>90</v>
       </c>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
+      <c r="S39" s="2">
+        <v>100</v>
+      </c>
+      <c r="T39" s="2">
+        <v>85</v>
+      </c>
       <c r="U39" s="2">
         <v>95</v>
       </c>
-      <c r="V39" s="2"/>
-      <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="1:23" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V39" s="2">
+        <v>100</v>
+      </c>
+      <c r="W39" s="2">
+        <v>95</v>
+      </c>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>171860589</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E40" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="E40" s="2">
+        <v>10</v>
+      </c>
       <c r="F40" s="2">
         <v>70</v>
       </c>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
+      <c r="G40" s="2">
+        <v>60</v>
+      </c>
+      <c r="H40" s="2">
+        <v>40</v>
+      </c>
       <c r="I40" s="2">
         <v>50</v>
       </c>
       <c r="J40" s="2">
         <v>60</v>
       </c>
-      <c r="K40" s="2"/>
+      <c r="K40" s="2">
+        <v>60</v>
+      </c>
       <c r="L40" s="2">
         <v>40</v>
       </c>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
+      <c r="M40" s="8">
+        <v>0</v>
+      </c>
+      <c r="N40" s="8">
+        <v>0</v>
+      </c>
+      <c r="O40" s="8">
+        <v>0</v>
+      </c>
+      <c r="P40" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="8">
+        <v>0</v>
+      </c>
       <c r="R40" s="2"/>
       <c r="S40" s="2"/>
-      <c r="T40" s="2"/>
+      <c r="T40" s="2">
+        <v>85</v>
+      </c>
       <c r="U40" s="2"/>
-      <c r="V40" s="2"/>
-      <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="1:23" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V40" s="2">
+        <v>100</v>
+      </c>
+      <c r="W40" s="2">
+        <v>80</v>
+      </c>
+      <c r="X40" s="2"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>171860598</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E41" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="E41" s="2">
+        <v>95</v>
+      </c>
       <c r="F41" s="2">
         <v>80</v>
       </c>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
+      <c r="G41" s="2">
+        <v>100</v>
+      </c>
+      <c r="H41" s="2">
+        <v>100</v>
+      </c>
       <c r="I41" s="2">
         <v>100</v>
       </c>
       <c r="J41" s="2">
         <v>95</v>
       </c>
-      <c r="K41" s="2"/>
+      <c r="K41" s="2">
+        <v>95</v>
+      </c>
       <c r="L41" s="2">
         <v>90</v>
       </c>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
+      <c r="M41" s="2">
+        <v>95</v>
+      </c>
+      <c r="N41" s="2">
+        <v>95</v>
+      </c>
+      <c r="O41" s="2">
+        <v>90</v>
+      </c>
       <c r="P41" s="2">
         <v>80</v>
       </c>
@@ -3246,46 +4120,70 @@
       <c r="R41" s="2">
         <v>95</v>
       </c>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
+      <c r="S41" s="2">
+        <v>100</v>
+      </c>
+      <c r="T41" s="2">
+        <v>80</v>
+      </c>
       <c r="U41" s="2">
         <v>90</v>
       </c>
-      <c r="V41" s="2"/>
-      <c r="W41" s="3"/>
-    </row>
-    <row r="42" spans="1:23" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V41" s="2">
+        <v>100</v>
+      </c>
+      <c r="W41" s="2">
+        <v>100</v>
+      </c>
+      <c r="X41" s="2"/>
+      <c r="Y41" s="3"/>
+    </row>
+    <row r="42" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>171860606</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E42" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="E42" s="2">
+        <v>90</v>
+      </c>
       <c r="F42" s="2">
         <v>90</v>
       </c>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
+      <c r="G42" s="2">
+        <v>95</v>
+      </c>
+      <c r="H42" s="2">
+        <v>95</v>
+      </c>
       <c r="I42" s="2">
         <v>90</v>
       </c>
       <c r="J42" s="2">
         <v>90</v>
       </c>
-      <c r="K42" s="2"/>
+      <c r="K42" s="2">
+        <v>90</v>
+      </c>
       <c r="L42" s="2">
         <v>90</v>
       </c>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
+      <c r="M42" s="2">
+        <v>95</v>
+      </c>
+      <c r="N42" s="2">
+        <v>90</v>
+      </c>
+      <c r="O42" s="2">
+        <v>80</v>
+      </c>
       <c r="P42" s="2">
         <v>90</v>
       </c>
@@ -3295,46 +4193,70 @@
       <c r="R42" s="2">
         <v>90</v>
       </c>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
+      <c r="S42" s="2">
+        <v>95</v>
+      </c>
+      <c r="T42" s="2">
+        <v>80</v>
+      </c>
       <c r="U42" s="2">
         <v>80</v>
       </c>
-      <c r="V42" s="2"/>
-      <c r="W42" s="3"/>
-    </row>
-    <row r="43" spans="1:23" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V42" s="2">
+        <v>100</v>
+      </c>
+      <c r="W42" s="2">
+        <v>100</v>
+      </c>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="3"/>
+    </row>
+    <row r="43" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>171860608</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E43" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="E43" s="2">
+        <v>95</v>
+      </c>
       <c r="F43" s="2">
         <v>90</v>
       </c>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
+      <c r="G43" s="2">
+        <v>70</v>
+      </c>
+      <c r="H43" s="2">
+        <v>95</v>
+      </c>
       <c r="I43" s="2">
         <v>85</v>
       </c>
       <c r="J43" s="2">
         <v>100</v>
       </c>
-      <c r="K43" s="2"/>
+      <c r="K43" s="2">
+        <v>80</v>
+      </c>
       <c r="L43" s="2">
         <v>75</v>
       </c>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+      <c r="M43" s="2">
+        <v>75</v>
+      </c>
+      <c r="N43" s="2">
+        <v>55</v>
+      </c>
+      <c r="O43" s="2">
+        <v>50</v>
+      </c>
       <c r="P43" s="2">
         <v>80</v>
       </c>
@@ -3348,40 +4270,56 @@
       <c r="T43" s="2"/>
       <c r="U43" s="2"/>
       <c r="V43" s="2"/>
-      <c r="W43" s="3"/>
-    </row>
-    <row r="44" spans="1:23" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W43" s="2"/>
+      <c r="X43" s="2"/>
+      <c r="Y43" s="3"/>
+    </row>
+    <row r="44" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>171860610</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E44" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="E44" s="2">
+        <v>100</v>
+      </c>
       <c r="F44" s="2">
         <v>100</v>
       </c>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
+      <c r="G44" s="2">
+        <v>95</v>
+      </c>
+      <c r="H44" s="2">
+        <v>95</v>
+      </c>
       <c r="I44" s="2">
         <v>95</v>
       </c>
       <c r="J44" s="2">
         <v>100</v>
       </c>
-      <c r="K44" s="2"/>
+      <c r="K44" s="2">
+        <v>95</v>
+      </c>
       <c r="L44" s="2">
         <v>100</v>
       </c>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
+      <c r="M44" s="2">
+        <v>100</v>
+      </c>
+      <c r="N44" s="2">
+        <v>100</v>
+      </c>
+      <c r="O44" s="2">
+        <v>95</v>
+      </c>
       <c r="P44" s="2">
         <v>95</v>
       </c>
@@ -3391,46 +4329,70 @@
       <c r="R44" s="2">
         <v>95</v>
       </c>
-      <c r="S44" s="2"/>
-      <c r="T44" s="2"/>
+      <c r="S44" s="2">
+        <v>90</v>
+      </c>
+      <c r="T44" s="2">
+        <v>90</v>
+      </c>
       <c r="U44" s="2">
         <v>95</v>
       </c>
-      <c r="V44" s="2"/>
-      <c r="W44" s="3"/>
-    </row>
-    <row r="45" spans="1:23" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V44" s="2">
+        <v>100</v>
+      </c>
+      <c r="W44" s="2">
+        <v>100</v>
+      </c>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="3"/>
+    </row>
+    <row r="45" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>171860612</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E45" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="E45" s="2">
+        <v>95</v>
+      </c>
       <c r="F45" s="2">
         <v>100</v>
       </c>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
+      <c r="G45" s="2">
+        <v>100</v>
+      </c>
+      <c r="H45" s="2">
+        <v>95</v>
+      </c>
       <c r="I45" s="2">
         <v>95</v>
       </c>
       <c r="J45" s="2">
         <v>85</v>
       </c>
-      <c r="K45" s="2"/>
+      <c r="K45" s="2">
+        <v>95</v>
+      </c>
       <c r="L45" s="2">
         <v>95</v>
       </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
+      <c r="M45" s="2">
+        <v>100</v>
+      </c>
+      <c r="N45" s="2">
+        <v>90</v>
+      </c>
+      <c r="O45" s="2">
+        <v>95</v>
+      </c>
       <c r="P45" s="2">
         <v>90</v>
       </c>
@@ -3440,46 +4402,70 @@
       <c r="R45" s="2">
         <v>95</v>
       </c>
-      <c r="S45" s="2"/>
-      <c r="T45" s="2"/>
+      <c r="S45" s="2">
+        <v>95</v>
+      </c>
+      <c r="T45" s="2">
+        <v>85</v>
+      </c>
       <c r="U45" s="2">
         <v>95</v>
       </c>
-      <c r="V45" s="2"/>
-      <c r="W45" s="3"/>
-    </row>
-    <row r="46" spans="1:23" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V45" s="2">
+        <v>100</v>
+      </c>
+      <c r="W45" s="2">
+        <v>95</v>
+      </c>
+      <c r="X45" s="2"/>
+      <c r="Y45" s="3"/>
+    </row>
+    <row r="46" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>171860613</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E46" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="E46" s="2">
+        <v>95</v>
+      </c>
       <c r="F46" s="2">
         <v>100</v>
       </c>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
+      <c r="G46" s="2">
+        <v>100</v>
+      </c>
+      <c r="H46" s="2">
+        <v>95</v>
+      </c>
       <c r="I46" s="2">
         <v>95</v>
       </c>
       <c r="J46" s="2">
         <v>95</v>
       </c>
-      <c r="K46" s="2"/>
+      <c r="K46" s="2">
+        <v>95</v>
+      </c>
       <c r="L46" s="2">
         <v>100</v>
       </c>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
+      <c r="M46" s="2">
+        <v>100</v>
+      </c>
+      <c r="N46" s="2">
+        <v>100</v>
+      </c>
+      <c r="O46" s="2">
+        <v>80</v>
+      </c>
       <c r="P46" s="2">
         <v>80</v>
       </c>
@@ -3489,46 +4475,70 @@
       <c r="R46" s="2">
         <v>90</v>
       </c>
-      <c r="S46" s="2"/>
-      <c r="T46" s="2"/>
+      <c r="S46" s="2">
+        <v>85</v>
+      </c>
+      <c r="T46" s="2">
+        <v>85</v>
+      </c>
       <c r="U46" s="2">
         <v>95</v>
       </c>
-      <c r="V46" s="2"/>
-      <c r="W46" s="3"/>
-    </row>
-    <row r="47" spans="1:23" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V46" s="2">
+        <v>100</v>
+      </c>
+      <c r="W46" s="2">
+        <v>100</v>
+      </c>
+      <c r="X46" s="2"/>
+      <c r="Y46" s="3"/>
+    </row>
+    <row r="47" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>171860616</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E47" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="E47" s="2">
+        <v>95</v>
+      </c>
       <c r="F47" s="2">
         <v>90</v>
       </c>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
+      <c r="G47" s="2">
+        <v>95</v>
+      </c>
+      <c r="H47" s="2">
+        <v>100</v>
+      </c>
       <c r="I47" s="2">
         <v>95</v>
       </c>
       <c r="J47" s="2">
         <v>100</v>
       </c>
-      <c r="K47" s="2"/>
+      <c r="K47" s="2">
+        <v>90</v>
+      </c>
       <c r="L47" s="2">
         <v>95</v>
       </c>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
+      <c r="M47" s="2">
+        <v>100</v>
+      </c>
+      <c r="N47" s="2">
+        <v>100</v>
+      </c>
+      <c r="O47" s="2">
+        <v>90</v>
+      </c>
       <c r="P47" s="2">
         <v>70</v>
       </c>
@@ -3538,46 +4548,70 @@
       <c r="R47" s="2">
         <v>90</v>
       </c>
-      <c r="S47" s="2"/>
-      <c r="T47" s="2"/>
+      <c r="S47" s="2">
+        <v>100</v>
+      </c>
+      <c r="T47" s="2">
+        <v>90</v>
+      </c>
       <c r="U47" s="2">
         <v>90</v>
       </c>
-      <c r="V47" s="2"/>
-      <c r="W47" s="3"/>
-    </row>
-    <row r="48" spans="1:23" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V47" s="2">
+        <v>100</v>
+      </c>
+      <c r="W47" s="2">
+        <v>95</v>
+      </c>
+      <c r="X47" s="2"/>
+      <c r="Y47" s="3"/>
+    </row>
+    <row r="48" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>171860617</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E48" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="E48" s="2">
+        <v>95</v>
+      </c>
       <c r="F48" s="2">
         <v>100</v>
       </c>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
+      <c r="G48" s="2">
+        <v>95</v>
+      </c>
+      <c r="H48" s="2">
+        <v>100</v>
+      </c>
       <c r="I48" s="2">
         <v>95</v>
       </c>
       <c r="J48" s="2">
         <v>90</v>
       </c>
-      <c r="K48" s="2"/>
+      <c r="K48" s="2">
+        <v>95</v>
+      </c>
       <c r="L48" s="2">
         <v>95</v>
       </c>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
+      <c r="M48" s="2">
+        <v>100</v>
+      </c>
+      <c r="N48" s="2">
+        <v>95</v>
+      </c>
+      <c r="O48" s="2">
+        <v>90</v>
+      </c>
       <c r="P48" s="2">
         <v>80</v>
       </c>
@@ -3587,46 +4621,70 @@
       <c r="R48" s="2">
         <v>100</v>
       </c>
-      <c r="S48" s="2"/>
-      <c r="T48" s="2"/>
+      <c r="S48" s="2">
+        <v>80</v>
+      </c>
+      <c r="T48" s="2">
+        <v>90</v>
+      </c>
       <c r="U48" s="2">
         <v>90</v>
       </c>
-      <c r="V48" s="2"/>
-      <c r="W48" s="3"/>
-    </row>
-    <row r="49" spans="1:23" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V48" s="2">
+        <v>100</v>
+      </c>
+      <c r="W48" s="2">
+        <v>90</v>
+      </c>
+      <c r="X48" s="2"/>
+      <c r="Y48" s="3"/>
+    </row>
+    <row r="49" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>171860618</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E49" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="E49" s="2">
+        <v>95</v>
+      </c>
       <c r="F49" s="2">
         <v>100</v>
       </c>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
+      <c r="G49" s="2">
+        <v>100</v>
+      </c>
+      <c r="H49" s="2">
+        <v>95</v>
+      </c>
       <c r="I49" s="2">
         <v>100</v>
       </c>
       <c r="J49" s="2">
         <v>90</v>
       </c>
-      <c r="K49" s="2"/>
+      <c r="K49" s="2">
+        <v>100</v>
+      </c>
       <c r="L49" s="2">
         <v>95</v>
       </c>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+      <c r="M49" s="2">
+        <v>100</v>
+      </c>
+      <c r="N49" s="2">
+        <v>100</v>
+      </c>
+      <c r="O49" s="2">
+        <v>90</v>
+      </c>
       <c r="P49" s="2">
         <v>80</v>
       </c>
@@ -3636,46 +4694,70 @@
       <c r="R49" s="2">
         <v>95</v>
       </c>
-      <c r="S49" s="2"/>
-      <c r="T49" s="2"/>
+      <c r="S49" s="2">
+        <v>85</v>
+      </c>
+      <c r="T49" s="2">
+        <v>90</v>
+      </c>
       <c r="U49" s="2">
         <v>95</v>
       </c>
-      <c r="V49" s="2"/>
-      <c r="W49" s="3"/>
-    </row>
-    <row r="50" spans="1:23" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V49" s="2">
+        <v>100</v>
+      </c>
+      <c r="W49" s="2">
+        <v>95</v>
+      </c>
+      <c r="X49" s="2"/>
+      <c r="Y49" s="3"/>
+    </row>
+    <row r="50" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>171860621</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E50" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="E50" s="2">
+        <v>100</v>
+      </c>
       <c r="F50" s="2">
         <v>100</v>
       </c>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
+      <c r="G50" s="2">
+        <v>95</v>
+      </c>
+      <c r="H50" s="8">
+        <v>0</v>
+      </c>
       <c r="I50" s="2">
         <v>95</v>
       </c>
       <c r="J50" s="2">
         <v>95</v>
       </c>
-      <c r="K50" s="2"/>
+      <c r="K50" s="2">
+        <v>100</v>
+      </c>
       <c r="L50" s="2">
         <v>95</v>
       </c>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
+      <c r="M50" s="2">
+        <v>100</v>
+      </c>
+      <c r="N50" s="2">
+        <v>100</v>
+      </c>
+      <c r="O50" s="2">
+        <v>90</v>
+      </c>
       <c r="P50" s="2">
         <v>95</v>
       </c>
@@ -3685,46 +4767,70 @@
       <c r="R50" s="2">
         <v>100</v>
       </c>
-      <c r="S50" s="2"/>
-      <c r="T50" s="2"/>
+      <c r="S50" s="2">
+        <v>95</v>
+      </c>
+      <c r="T50" s="2">
+        <v>95</v>
+      </c>
       <c r="U50" s="2">
         <v>90</v>
       </c>
-      <c r="V50" s="2"/>
-      <c r="W50" s="3"/>
-    </row>
-    <row r="51" spans="1:23" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V50" s="2">
+        <v>100</v>
+      </c>
+      <c r="W50" s="2">
+        <v>100</v>
+      </c>
+      <c r="X50" s="2"/>
+      <c r="Y50" s="3"/>
+    </row>
+    <row r="51" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>171860622</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E51" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="E51" s="2">
+        <v>95</v>
+      </c>
       <c r="F51" s="2">
         <v>100</v>
       </c>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
+      <c r="G51" s="2">
+        <v>95</v>
+      </c>
+      <c r="H51" s="2">
+        <v>95</v>
+      </c>
       <c r="I51" s="2">
         <v>95</v>
       </c>
       <c r="J51" s="2">
         <v>95</v>
       </c>
-      <c r="K51" s="2"/>
+      <c r="K51" s="2">
+        <v>95</v>
+      </c>
       <c r="L51" s="2">
         <v>90</v>
       </c>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
+      <c r="M51" s="2">
+        <v>90</v>
+      </c>
+      <c r="N51" s="2">
+        <v>90</v>
+      </c>
+      <c r="O51" s="2">
+        <v>85</v>
+      </c>
       <c r="P51" s="2">
         <v>90</v>
       </c>
@@ -3734,46 +4840,70 @@
       <c r="R51" s="2">
         <v>95</v>
       </c>
-      <c r="S51" s="2"/>
-      <c r="T51" s="2"/>
+      <c r="S51" s="2">
+        <v>95</v>
+      </c>
+      <c r="T51" s="2">
+        <v>85</v>
+      </c>
       <c r="U51" s="2">
         <v>95</v>
       </c>
-      <c r="V51" s="2"/>
-      <c r="W51" s="3"/>
-    </row>
-    <row r="52" spans="1:23" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V51" s="2">
+        <v>85</v>
+      </c>
+      <c r="W51" s="2">
+        <v>95</v>
+      </c>
+      <c r="X51" s="2"/>
+      <c r="Y51" s="3"/>
+    </row>
+    <row r="52" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>171860630</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E52" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="E52" s="2">
+        <v>90</v>
+      </c>
       <c r="F52" s="2">
         <v>95</v>
       </c>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
+      <c r="G52" s="2">
+        <v>100</v>
+      </c>
+      <c r="H52" s="2">
+        <v>95</v>
+      </c>
       <c r="I52" s="2">
         <v>90</v>
       </c>
       <c r="J52" s="2">
         <v>90</v>
       </c>
-      <c r="K52" s="2"/>
+      <c r="K52" s="2">
+        <v>95</v>
+      </c>
       <c r="L52" s="2">
         <v>95</v>
       </c>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
+      <c r="M52" s="2">
+        <v>100</v>
+      </c>
+      <c r="N52" s="2">
+        <v>90</v>
+      </c>
+      <c r="O52" s="2">
+        <v>85</v>
+      </c>
       <c r="P52" s="2">
         <v>75</v>
       </c>
@@ -3781,46 +4911,70 @@
         <v>85</v>
       </c>
       <c r="R52" s="2"/>
-      <c r="S52" s="2"/>
-      <c r="T52" s="2"/>
+      <c r="S52" s="2">
+        <v>70</v>
+      </c>
+      <c r="T52" s="2">
+        <v>85</v>
+      </c>
       <c r="U52" s="2">
         <v>90</v>
       </c>
-      <c r="V52" s="2"/>
-      <c r="W52" s="3"/>
-    </row>
-    <row r="53" spans="1:23" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V52" s="2">
+        <v>100</v>
+      </c>
+      <c r="W52" s="2">
+        <v>95</v>
+      </c>
+      <c r="X52" s="2"/>
+      <c r="Y52" s="3"/>
+    </row>
+    <row r="53" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>171860633</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E53" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="E53" s="2">
+        <v>95</v>
+      </c>
       <c r="F53" s="2">
         <v>100</v>
       </c>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
+      <c r="G53" s="2">
+        <v>100</v>
+      </c>
+      <c r="H53" s="2">
+        <v>100</v>
+      </c>
       <c r="I53" s="2">
         <v>100</v>
       </c>
       <c r="J53" s="2">
         <v>100</v>
       </c>
-      <c r="K53" s="2"/>
+      <c r="K53" s="2">
+        <v>100</v>
+      </c>
       <c r="L53" s="2">
         <v>95</v>
       </c>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
+      <c r="M53" s="2">
+        <v>100</v>
+      </c>
+      <c r="N53" s="2">
+        <v>100</v>
+      </c>
+      <c r="O53" s="2">
+        <v>95</v>
+      </c>
       <c r="P53" s="2">
         <v>100</v>
       </c>
@@ -3830,46 +4984,70 @@
       <c r="R53" s="2">
         <v>90</v>
       </c>
-      <c r="S53" s="2"/>
-      <c r="T53" s="2"/>
+      <c r="S53" s="2">
+        <v>95</v>
+      </c>
+      <c r="T53" s="2">
+        <v>95</v>
+      </c>
       <c r="U53" s="2">
         <v>95</v>
       </c>
-      <c r="V53" s="2"/>
-      <c r="W53" s="3"/>
-    </row>
-    <row r="54" spans="1:23" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V53" s="2">
+        <v>100</v>
+      </c>
+      <c r="W53" s="2">
+        <v>100</v>
+      </c>
+      <c r="X53" s="2"/>
+      <c r="Y53" s="3"/>
+    </row>
+    <row r="54" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>171860634</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E54" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="E54" s="2">
+        <v>95</v>
+      </c>
       <c r="F54" s="2">
         <v>95</v>
       </c>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
+      <c r="G54" s="2">
+        <v>90</v>
+      </c>
+      <c r="H54" s="2">
+        <v>95</v>
+      </c>
       <c r="I54" s="2">
         <v>95</v>
       </c>
       <c r="J54" s="2">
         <v>90</v>
       </c>
-      <c r="K54" s="2"/>
+      <c r="K54" s="2">
+        <v>100</v>
+      </c>
       <c r="L54" s="2">
         <v>95</v>
       </c>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
+      <c r="M54" s="2">
+        <v>100</v>
+      </c>
+      <c r="N54" s="2">
+        <v>95</v>
+      </c>
+      <c r="O54" s="2">
+        <v>80</v>
+      </c>
       <c r="P54" s="2">
         <v>80</v>
       </c>
@@ -3879,46 +5057,70 @@
       <c r="R54" s="2">
         <v>95</v>
       </c>
-      <c r="S54" s="2"/>
-      <c r="T54" s="2"/>
+      <c r="S54" s="2">
+        <v>90</v>
+      </c>
+      <c r="T54" s="2">
+        <v>90</v>
+      </c>
       <c r="U54" s="2">
         <v>100</v>
       </c>
-      <c r="V54" s="2"/>
-      <c r="W54" s="3"/>
-    </row>
-    <row r="55" spans="1:23" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V54" s="2">
+        <v>100</v>
+      </c>
+      <c r="W54" s="2">
+        <v>95</v>
+      </c>
+      <c r="X54" s="2"/>
+      <c r="Y54" s="3"/>
+    </row>
+    <row r="55" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>171860636</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E55" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="E55" s="2">
+        <v>95</v>
+      </c>
       <c r="F55" s="2">
         <v>100</v>
       </c>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
+      <c r="G55" s="2">
+        <v>100</v>
+      </c>
+      <c r="H55" s="2">
+        <v>100</v>
+      </c>
       <c r="I55" s="2">
         <v>100</v>
       </c>
       <c r="J55" s="2">
         <v>100</v>
       </c>
-      <c r="K55" s="2"/>
+      <c r="K55" s="2">
+        <v>100</v>
+      </c>
       <c r="L55" s="2">
         <v>95</v>
       </c>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
+      <c r="M55" s="2">
+        <v>90</v>
+      </c>
+      <c r="N55" s="2">
+        <v>100</v>
+      </c>
+      <c r="O55" s="2">
+        <v>100</v>
+      </c>
       <c r="P55" s="2">
         <v>90</v>
       </c>
@@ -3928,46 +5130,70 @@
       <c r="R55" s="2">
         <v>100</v>
       </c>
-      <c r="S55" s="2"/>
-      <c r="T55" s="2"/>
+      <c r="S55" s="2">
+        <v>95</v>
+      </c>
+      <c r="T55" s="2">
+        <v>95</v>
+      </c>
       <c r="U55" s="2">
         <v>95</v>
       </c>
-      <c r="V55" s="2"/>
-      <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="1:23" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V55" s="2">
+        <v>100</v>
+      </c>
+      <c r="W55" s="2">
+        <v>100</v>
+      </c>
+      <c r="X55" s="2"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>171860655</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E56" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="E56" s="2">
+        <v>95</v>
+      </c>
       <c r="F56" s="2">
         <v>90</v>
       </c>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
+      <c r="G56" s="2">
+        <v>100</v>
+      </c>
+      <c r="H56" s="2">
+        <v>95</v>
+      </c>
       <c r="I56" s="2">
         <v>100</v>
       </c>
       <c r="J56" s="2">
         <v>100</v>
       </c>
-      <c r="K56" s="2"/>
+      <c r="K56" s="2">
+        <v>95</v>
+      </c>
       <c r="L56" s="2">
         <v>100</v>
       </c>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
+      <c r="M56" s="2">
+        <v>100</v>
+      </c>
+      <c r="N56" s="2">
+        <v>100</v>
+      </c>
+      <c r="O56" s="2">
+        <v>85</v>
+      </c>
       <c r="P56" s="2">
         <v>90</v>
       </c>
@@ -3977,46 +5203,70 @@
       <c r="R56" s="2">
         <v>90</v>
       </c>
-      <c r="S56" s="2"/>
-      <c r="T56" s="2"/>
+      <c r="S56" s="2">
+        <v>90</v>
+      </c>
+      <c r="T56" s="2">
+        <v>100</v>
+      </c>
       <c r="U56" s="2">
         <v>100</v>
       </c>
-      <c r="V56" s="2"/>
-      <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="1:23" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V56" s="2">
+        <v>100</v>
+      </c>
+      <c r="W56" s="2">
+        <v>95</v>
+      </c>
+      <c r="X56" s="2"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>171860656</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E57" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="E57" s="2">
+        <v>90</v>
+      </c>
       <c r="F57" s="2">
         <v>95</v>
       </c>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
+      <c r="G57" s="2">
+        <v>100</v>
+      </c>
+      <c r="H57" s="2">
+        <v>95</v>
+      </c>
       <c r="I57" s="2">
         <v>90</v>
       </c>
       <c r="J57" s="2">
         <v>95</v>
       </c>
-      <c r="K57" s="2"/>
+      <c r="K57" s="2">
+        <v>100</v>
+      </c>
       <c r="L57" s="2">
         <v>95</v>
       </c>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
+      <c r="M57" s="2">
+        <v>90</v>
+      </c>
+      <c r="N57" s="2">
+        <v>90</v>
+      </c>
+      <c r="O57" s="2">
+        <v>90</v>
+      </c>
       <c r="P57" s="2">
         <v>80</v>
       </c>
@@ -4031,41 +5281,61 @@
       <c r="U57" s="2">
         <v>95</v>
       </c>
-      <c r="V57" s="2"/>
-      <c r="W57" s="3"/>
-    </row>
-    <row r="58" spans="1:23" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V57" s="2">
+        <v>100</v>
+      </c>
+      <c r="W57" s="2">
+        <v>100</v>
+      </c>
+      <c r="X57" s="2"/>
+      <c r="Y57" s="3"/>
+    </row>
+    <row r="58" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>171860669</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E58" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="E58" s="2">
+        <v>95</v>
+      </c>
       <c r="F58" s="2">
         <v>95</v>
       </c>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
+      <c r="G58" s="2">
+        <v>100</v>
+      </c>
+      <c r="H58" s="2">
+        <v>95</v>
+      </c>
       <c r="I58" s="2">
         <v>95</v>
       </c>
       <c r="J58" s="2">
         <v>90</v>
       </c>
-      <c r="K58" s="2"/>
+      <c r="K58" s="2">
+        <v>95</v>
+      </c>
       <c r="L58" s="2">
         <v>95</v>
       </c>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
+      <c r="M58" s="2">
+        <v>100</v>
+      </c>
+      <c r="N58" s="2">
+        <v>100</v>
+      </c>
+      <c r="O58" s="2">
+        <v>90</v>
+      </c>
       <c r="P58" s="2">
         <v>85</v>
       </c>
@@ -4075,46 +5345,70 @@
       <c r="R58" s="2">
         <v>90</v>
       </c>
-      <c r="S58" s="2"/>
-      <c r="T58" s="2"/>
+      <c r="S58" s="2">
+        <v>95</v>
+      </c>
+      <c r="T58" s="2">
+        <v>95</v>
+      </c>
       <c r="U58" s="2">
         <v>95</v>
       </c>
-      <c r="V58" s="2"/>
-      <c r="W58" s="3"/>
-    </row>
-    <row r="59" spans="1:23" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V58" s="2">
+        <v>100</v>
+      </c>
+      <c r="W58" s="2">
+        <v>100</v>
+      </c>
+      <c r="X58" s="2"/>
+      <c r="Y58" s="3"/>
+    </row>
+    <row r="59" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>171860681</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E59" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="E59" s="2">
+        <v>95</v>
+      </c>
       <c r="F59" s="2">
         <v>90</v>
       </c>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
+      <c r="G59" s="2">
+        <v>95</v>
+      </c>
+      <c r="H59" s="2">
+        <v>95</v>
+      </c>
       <c r="I59" s="2">
         <v>100</v>
       </c>
       <c r="J59" s="2">
         <v>95</v>
       </c>
-      <c r="K59" s="2"/>
+      <c r="K59" s="2">
+        <v>100</v>
+      </c>
       <c r="L59" s="2">
         <v>95</v>
       </c>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
+      <c r="M59" s="2">
+        <v>100</v>
+      </c>
+      <c r="N59" s="2">
+        <v>95</v>
+      </c>
+      <c r="O59" s="2">
+        <v>95</v>
+      </c>
       <c r="P59" s="2">
         <v>85</v>
       </c>
@@ -4124,46 +5418,70 @@
       <c r="R59" s="2">
         <v>95</v>
       </c>
-      <c r="S59" s="2"/>
-      <c r="T59" s="2"/>
+      <c r="S59" s="2">
+        <v>95</v>
+      </c>
+      <c r="T59" s="2">
+        <v>85</v>
+      </c>
       <c r="U59" s="2">
         <v>95</v>
       </c>
-      <c r="V59" s="2"/>
-      <c r="W59" s="3"/>
-    </row>
-    <row r="60" spans="1:23" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V59" s="2">
+        <v>95</v>
+      </c>
+      <c r="W59" s="2">
+        <v>95</v>
+      </c>
+      <c r="X59" s="2"/>
+      <c r="Y59" s="3"/>
+    </row>
+    <row r="60" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>171860682</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E60" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="E60" s="2">
+        <v>95</v>
+      </c>
       <c r="F60" s="2">
         <v>100</v>
       </c>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
+      <c r="G60" s="2">
+        <v>90</v>
+      </c>
+      <c r="H60" s="2">
+        <v>100</v>
+      </c>
       <c r="I60" s="2">
         <v>95</v>
       </c>
       <c r="J60" s="2">
         <v>100</v>
       </c>
-      <c r="K60" s="2"/>
+      <c r="K60" s="2">
+        <v>100</v>
+      </c>
       <c r="L60" s="2">
         <v>100</v>
       </c>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
+      <c r="M60" s="2">
+        <v>100</v>
+      </c>
+      <c r="N60" s="2">
+        <v>100</v>
+      </c>
+      <c r="O60" s="2">
+        <v>95</v>
+      </c>
       <c r="P60" s="2">
         <v>90</v>
       </c>
@@ -4173,46 +5491,70 @@
       <c r="R60" s="2">
         <v>95</v>
       </c>
-      <c r="S60" s="2"/>
-      <c r="T60" s="2"/>
+      <c r="S60" s="2">
+        <v>95</v>
+      </c>
+      <c r="T60" s="2">
+        <v>100</v>
+      </c>
       <c r="U60" s="2">
         <v>95</v>
       </c>
-      <c r="V60" s="2"/>
-      <c r="W60" s="3"/>
-    </row>
-    <row r="61" spans="1:23" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V60" s="2">
+        <v>100</v>
+      </c>
+      <c r="W60" s="2">
+        <v>95</v>
+      </c>
+      <c r="X60" s="2"/>
+      <c r="Y60" s="3"/>
+    </row>
+    <row r="61" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>171860683</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E61" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="E61" s="2">
+        <v>95</v>
+      </c>
       <c r="F61" s="2">
         <v>100</v>
       </c>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
+      <c r="G61" s="2">
+        <v>95</v>
+      </c>
+      <c r="H61" s="2">
+        <v>100</v>
+      </c>
       <c r="I61" s="2">
         <v>95</v>
       </c>
       <c r="J61" s="2">
         <v>90</v>
       </c>
-      <c r="K61" s="2"/>
+      <c r="K61" s="2">
+        <v>95</v>
+      </c>
       <c r="L61" s="2">
         <v>95</v>
       </c>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
+      <c r="M61" s="2">
+        <v>95</v>
+      </c>
+      <c r="N61" s="2">
+        <v>100</v>
+      </c>
+      <c r="O61" s="2">
+        <v>90</v>
+      </c>
       <c r="P61" s="2">
         <v>85</v>
       </c>
@@ -4222,46 +5564,70 @@
       <c r="R61" s="2">
         <v>100</v>
       </c>
-      <c r="S61" s="2"/>
-      <c r="T61" s="2"/>
+      <c r="S61" s="2">
+        <v>95</v>
+      </c>
+      <c r="T61" s="2">
+        <v>90</v>
+      </c>
       <c r="U61" s="2">
         <v>100</v>
       </c>
-      <c r="V61" s="2"/>
-      <c r="W61" s="3"/>
-    </row>
-    <row r="62" spans="1:23" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V61" s="2">
+        <v>100</v>
+      </c>
+      <c r="W61" s="2">
+        <v>95</v>
+      </c>
+      <c r="X61" s="2"/>
+      <c r="Y61" s="3"/>
+    </row>
+    <row r="62" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>171860684</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E62" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="E62" s="2">
+        <v>90</v>
+      </c>
       <c r="F62" s="2">
         <v>100</v>
       </c>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
+      <c r="G62" s="2">
+        <v>100</v>
+      </c>
+      <c r="H62" s="2">
+        <v>95</v>
+      </c>
       <c r="I62" s="2">
         <v>90</v>
       </c>
       <c r="J62" s="2">
         <v>90</v>
       </c>
-      <c r="K62" s="2"/>
+      <c r="K62" s="2">
+        <v>95</v>
+      </c>
       <c r="L62" s="2">
         <v>95</v>
       </c>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
+      <c r="M62" s="2">
+        <v>100</v>
+      </c>
+      <c r="N62" s="2">
+        <v>100</v>
+      </c>
+      <c r="O62" s="2">
+        <v>95</v>
+      </c>
       <c r="P62" s="2">
         <v>90</v>
       </c>
@@ -4271,46 +5637,70 @@
       <c r="R62" s="2">
         <v>90</v>
       </c>
-      <c r="S62" s="2"/>
-      <c r="T62" s="2"/>
+      <c r="S62" s="2">
+        <v>100</v>
+      </c>
+      <c r="T62" s="2">
+        <v>85</v>
+      </c>
       <c r="U62" s="2">
         <v>95</v>
       </c>
-      <c r="V62" s="2"/>
-      <c r="W62" s="3"/>
-    </row>
-    <row r="63" spans="1:23" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V62" s="2">
+        <v>100</v>
+      </c>
+      <c r="W62" s="2">
+        <v>95</v>
+      </c>
+      <c r="X62" s="2"/>
+      <c r="Y62" s="3"/>
+    </row>
+    <row r="63" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>171860686</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E63" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="E63" s="2">
+        <v>95</v>
+      </c>
       <c r="F63" s="2">
         <v>100</v>
       </c>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
+      <c r="G63" s="2">
+        <v>100</v>
+      </c>
+      <c r="H63" s="2">
+        <v>100</v>
+      </c>
       <c r="I63" s="2">
         <v>100</v>
       </c>
       <c r="J63" s="2">
         <v>100</v>
       </c>
-      <c r="K63" s="2"/>
+      <c r="K63" s="2">
+        <v>100</v>
+      </c>
       <c r="L63" s="2">
         <v>100</v>
       </c>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
+      <c r="M63" s="2">
+        <v>100</v>
+      </c>
+      <c r="N63" s="2">
+        <v>100</v>
+      </c>
+      <c r="O63" s="2">
+        <v>85</v>
+      </c>
       <c r="P63" s="2">
         <v>100</v>
       </c>
@@ -4320,44 +5710,70 @@
       <c r="R63" s="2">
         <v>100</v>
       </c>
-      <c r="S63" s="2"/>
-      <c r="T63" s="2"/>
+      <c r="S63" s="2">
+        <v>100</v>
+      </c>
+      <c r="T63" s="2">
+        <v>95</v>
+      </c>
       <c r="U63" s="2">
         <v>95</v>
       </c>
-      <c r="V63" s="2"/>
-      <c r="W63" s="3"/>
-    </row>
-    <row r="64" spans="1:23" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V63" s="2">
+        <v>100</v>
+      </c>
+      <c r="W63" s="2">
+        <v>100</v>
+      </c>
+      <c r="X63" s="2"/>
+      <c r="Y63" s="3"/>
+    </row>
+    <row r="64" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>171870020</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E64" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="E64" s="2">
+        <v>95</v>
+      </c>
       <c r="F64" s="2">
         <v>100</v>
       </c>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
+      <c r="G64" s="2">
+        <v>100</v>
+      </c>
+      <c r="H64" s="2">
+        <v>100</v>
+      </c>
       <c r="I64" s="2">
         <v>95</v>
       </c>
       <c r="J64" s="2">
         <v>100</v>
       </c>
-      <c r="K64" s="2"/>
-      <c r="L64" s="2"/>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
+      <c r="K64" s="2">
+        <v>100</v>
+      </c>
+      <c r="L64" s="8">
+        <v>0</v>
+      </c>
+      <c r="M64" s="2">
+        <v>100</v>
+      </c>
+      <c r="N64" s="8">
+        <v>0</v>
+      </c>
+      <c r="O64" s="8">
+        <v>0</v>
+      </c>
       <c r="P64" s="2">
         <v>70</v>
       </c>
@@ -4365,11 +5781,17 @@
         <v>70</v>
       </c>
       <c r="R64" s="2"/>
-      <c r="S64" s="2"/>
-      <c r="T64" s="2"/>
+      <c r="S64" s="2">
+        <v>75</v>
+      </c>
+      <c r="T64" s="2">
+        <v>95</v>
+      </c>
       <c r="U64" s="2"/>
       <c r="V64" s="2"/>
-      <c r="W64" s="3"/>
+      <c r="W64" s="2"/>
+      <c r="X64" s="2"/>
+      <c r="Y64" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/课后作业成绩2018/作业成绩.xlsx
+++ b/课后作业成绩2018/作业成绩.xlsx
@@ -294,7 +294,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -488,6 +488,12 @@
     <font>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -942,7 +948,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -958,16 +964,19 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1327,8 +1336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB58" sqref="AB58"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1343,86 +1352,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
       <c r="X1" s="4"/>
     </row>
     <row r="2" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
       <c r="X2" s="4"/>
     </row>
     <row r="3" spans="1:25" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="5"/>
     </row>
     <row r="4" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -1725,7 +1734,7 @@
       <c r="N8" s="2">
         <v>85</v>
       </c>
-      <c r="O8" s="8">
+      <c r="O8" s="6">
         <v>0</v>
       </c>
       <c r="P8" s="2">
@@ -4035,19 +4044,19 @@
       <c r="L40" s="2">
         <v>40</v>
       </c>
-      <c r="M40" s="8">
+      <c r="M40" s="6">
         <v>0</v>
       </c>
-      <c r="N40" s="8">
+      <c r="N40" s="6">
         <v>0</v>
       </c>
-      <c r="O40" s="8">
+      <c r="O40" s="6">
         <v>0</v>
       </c>
-      <c r="P40" s="8">
+      <c r="P40" s="6">
         <v>0</v>
       </c>
-      <c r="Q40" s="8">
+      <c r="Q40" s="6">
         <v>0</v>
       </c>
       <c r="R40" s="2"/>
@@ -4734,8 +4743,8 @@
       <c r="G50" s="2">
         <v>95</v>
       </c>
-      <c r="H50" s="8">
-        <v>0</v>
+      <c r="H50" s="9">
+        <v>95</v>
       </c>
       <c r="I50" s="2">
         <v>95</v>
@@ -5762,16 +5771,16 @@
       <c r="K64" s="2">
         <v>100</v>
       </c>
-      <c r="L64" s="8">
+      <c r="L64" s="6">
         <v>0</v>
       </c>
       <c r="M64" s="2">
         <v>100</v>
       </c>
-      <c r="N64" s="8">
+      <c r="N64" s="6">
         <v>0</v>
       </c>
-      <c r="O64" s="8">
+      <c r="O64" s="6">
         <v>0</v>
       </c>
       <c r="P64" s="2">

--- a/课后作业成绩2018/作业成绩.xlsx
+++ b/课后作业成绩2018/作业成绩.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="90">
   <si>
     <t>南京大学  《离散数学》  课程学生名单</t>
   </si>
@@ -287,6 +287,14 @@
   </si>
   <si>
     <t>90s s</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                                       </t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
@@ -970,13 +978,13 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1334,10 +1342,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y64"/>
+  <dimension ref="A1:AC64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA36" sqref="AA36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1352,85 +1360,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
       <c r="X1" s="4"/>
     </row>
     <row r="2" spans="1:25" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
       <c r="X2" s="4"/>
     </row>
     <row r="3" spans="1:25" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
       <c r="X3" s="5"/>
     </row>
     <row r="4" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1615,7 +1623,9 @@
       <c r="W6" s="2">
         <v>95</v>
       </c>
-      <c r="X6" s="2"/>
+      <c r="X6" s="2">
+        <v>100</v>
+      </c>
       <c r="Y6" s="3"/>
     </row>
     <row r="7" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1688,7 +1698,9 @@
       <c r="W7" s="2">
         <v>75</v>
       </c>
-      <c r="X7" s="2"/>
+      <c r="X7" s="2">
+        <v>95</v>
+      </c>
       <c r="Y7" s="3"/>
     </row>
     <row r="8" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1828,7 +1840,9 @@
       <c r="W9" s="2">
         <v>95</v>
       </c>
-      <c r="X9" s="2"/>
+      <c r="X9" s="2">
+        <v>95</v>
+      </c>
       <c r="Y9" s="3"/>
     </row>
     <row r="10" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1901,7 +1915,9 @@
       <c r="W10" s="2">
         <v>90</v>
       </c>
-      <c r="X10" s="2"/>
+      <c r="X10" s="2">
+        <v>95</v>
+      </c>
       <c r="Y10" s="3"/>
     </row>
     <row r="11" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1974,7 +1990,9 @@
       <c r="W11" s="2">
         <v>95</v>
       </c>
-      <c r="X11" s="2"/>
+      <c r="X11" s="2">
+        <v>90</v>
+      </c>
       <c r="Y11" s="3"/>
     </row>
     <row r="12" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2047,7 +2065,9 @@
       <c r="W12" s="2">
         <v>95</v>
       </c>
-      <c r="X12" s="2"/>
+      <c r="X12" s="2">
+        <v>100</v>
+      </c>
       <c r="Y12" s="3"/>
     </row>
     <row r="13" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2120,7 +2140,9 @@
       <c r="W13" s="2">
         <v>100</v>
       </c>
-      <c r="X13" s="2"/>
+      <c r="X13" s="2">
+        <v>100</v>
+      </c>
       <c r="Y13" s="3"/>
     </row>
     <row r="14" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2193,7 +2215,9 @@
       <c r="W14" s="2">
         <v>100</v>
       </c>
-      <c r="X14" s="2"/>
+      <c r="X14" s="2">
+        <v>95</v>
+      </c>
       <c r="Y14" s="3"/>
     </row>
     <row r="15" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2266,7 +2290,9 @@
       <c r="W15" s="2">
         <v>95</v>
       </c>
-      <c r="X15" s="2"/>
+      <c r="X15" s="2">
+        <v>95</v>
+      </c>
       <c r="Y15" s="3"/>
     </row>
     <row r="16" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2339,10 +2365,12 @@
       <c r="W16" s="2">
         <v>100</v>
       </c>
-      <c r="X16" s="2"/>
+      <c r="X16" s="2">
+        <v>100</v>
+      </c>
       <c r="Y16" s="3"/>
     </row>
-    <row r="17" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>171860515</v>
       </c>
@@ -2410,10 +2438,12 @@
       <c r="W17" s="2">
         <v>85</v>
       </c>
-      <c r="X17" s="2"/>
+      <c r="X17" s="2">
+        <v>90</v>
+      </c>
       <c r="Y17" s="3"/>
     </row>
-    <row r="18" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>171860516</v>
       </c>
@@ -2483,10 +2513,12 @@
       <c r="W18" s="2">
         <v>100</v>
       </c>
-      <c r="X18" s="2"/>
+      <c r="X18" s="2">
+        <v>100</v>
+      </c>
       <c r="Y18" s="3"/>
     </row>
-    <row r="19" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>171860519</v>
       </c>
@@ -2556,10 +2588,12 @@
       <c r="W19" s="2">
         <v>90</v>
       </c>
-      <c r="X19" s="2"/>
+      <c r="X19" s="2">
+        <v>90</v>
+      </c>
       <c r="Y19" s="3"/>
     </row>
-    <row r="20" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>171860521</v>
       </c>
@@ -2629,10 +2663,12 @@
       <c r="W20" s="2">
         <v>100</v>
       </c>
-      <c r="X20" s="2"/>
+      <c r="X20" s="2">
+        <v>95</v>
+      </c>
       <c r="Y20" s="3"/>
     </row>
-    <row r="21" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>171860522</v>
       </c>
@@ -2702,10 +2738,12 @@
       <c r="W21" s="2">
         <v>90</v>
       </c>
-      <c r="X21" s="2"/>
+      <c r="X21" s="2">
+        <v>90</v>
+      </c>
       <c r="Y21" s="3"/>
     </row>
-    <row r="22" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>171860523</v>
       </c>
@@ -2767,10 +2805,12 @@
       </c>
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
+      <c r="X22" s="2">
+        <v>90</v>
+      </c>
       <c r="Y22" s="3"/>
     </row>
-    <row r="23" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>171860524</v>
       </c>
@@ -2840,10 +2880,12 @@
       <c r="W23" s="2">
         <v>95</v>
       </c>
-      <c r="X23" s="2"/>
+      <c r="X23" s="2">
+        <v>85</v>
+      </c>
       <c r="Y23" s="3"/>
     </row>
-    <row r="24" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>171860526</v>
       </c>
@@ -2913,10 +2955,15 @@
       <c r="W24" s="2">
         <v>90</v>
       </c>
-      <c r="X24" s="2"/>
+      <c r="X24" s="2">
+        <v>95</v>
+      </c>
       <c r="Y24" s="3"/>
-    </row>
-    <row r="25" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AC24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>171860528</v>
       </c>
@@ -2989,7 +3036,7 @@
       <c r="X25" s="2"/>
       <c r="Y25" s="3"/>
     </row>
-    <row r="26" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>171860530</v>
       </c>
@@ -3059,10 +3106,12 @@
       <c r="W26" s="2">
         <v>100</v>
       </c>
-      <c r="X26" s="2"/>
+      <c r="X26" s="2">
+        <v>100</v>
+      </c>
       <c r="Y26" s="3"/>
     </row>
-    <row r="27" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>171860541</v>
       </c>
@@ -3132,10 +3181,12 @@
       <c r="W27" s="2">
         <v>100</v>
       </c>
-      <c r="X27" s="2"/>
+      <c r="X27" s="2">
+        <v>95</v>
+      </c>
       <c r="Y27" s="3"/>
     </row>
-    <row r="28" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>171860542</v>
       </c>
@@ -3205,10 +3256,12 @@
       <c r="W28" s="2">
         <v>90</v>
       </c>
-      <c r="X28" s="2"/>
+      <c r="X28" s="2">
+        <v>95</v>
+      </c>
       <c r="Y28" s="3"/>
     </row>
-    <row r="29" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>171860545</v>
       </c>
@@ -3278,10 +3331,12 @@
       <c r="W29" s="2">
         <v>100</v>
       </c>
-      <c r="X29" s="2"/>
+      <c r="X29" s="2">
+        <v>100</v>
+      </c>
       <c r="Y29" s="3"/>
     </row>
-    <row r="30" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>171860546</v>
       </c>
@@ -3351,10 +3406,12 @@
       <c r="W30" s="2">
         <v>85</v>
       </c>
-      <c r="X30" s="2"/>
+      <c r="X30" s="2">
+        <v>90</v>
+      </c>
       <c r="Y30" s="3"/>
     </row>
-    <row r="31" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>171860547</v>
       </c>
@@ -3424,10 +3481,12 @@
       <c r="W31" s="2">
         <v>100</v>
       </c>
-      <c r="X31" s="2"/>
+      <c r="X31" s="2">
+        <v>95</v>
+      </c>
       <c r="Y31" s="3"/>
     </row>
-    <row r="32" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:29" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>171860557</v>
       </c>
@@ -3497,7 +3556,9 @@
       <c r="W32" s="2">
         <v>95</v>
       </c>
-      <c r="X32" s="2"/>
+      <c r="X32" s="2">
+        <v>85</v>
+      </c>
       <c r="Y32" s="3"/>
     </row>
     <row r="33" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3639,7 +3700,9 @@
       <c r="W34" s="2">
         <v>100</v>
       </c>
-      <c r="X34" s="2"/>
+      <c r="X34" s="2">
+        <v>90</v>
+      </c>
       <c r="Y34" s="3"/>
     </row>
     <row r="35" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3712,7 +3775,9 @@
       <c r="W35" s="2">
         <v>95</v>
       </c>
-      <c r="X35" s="2"/>
+      <c r="X35" s="2">
+        <v>85</v>
+      </c>
       <c r="Y35" s="3"/>
     </row>
     <row r="36" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3785,7 +3850,9 @@
       <c r="W36" s="2">
         <v>95</v>
       </c>
-      <c r="X36" s="2"/>
+      <c r="X36" s="2">
+        <v>95</v>
+      </c>
       <c r="Y36" s="3"/>
     </row>
     <row r="37" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3858,7 +3925,9 @@
       <c r="W37" s="2">
         <v>100</v>
       </c>
-      <c r="X37" s="2"/>
+      <c r="X37" s="2">
+        <v>95</v>
+      </c>
       <c r="Y37" s="3"/>
     </row>
     <row r="38" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3931,7 +4000,9 @@
       <c r="W38" s="2">
         <v>100</v>
       </c>
-      <c r="X38" s="2"/>
+      <c r="X38" s="2">
+        <v>90</v>
+      </c>
       <c r="Y38" s="3"/>
     </row>
     <row r="39" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4004,7 +4075,9 @@
       <c r="W39" s="2">
         <v>95</v>
       </c>
-      <c r="X39" s="2"/>
+      <c r="X39" s="2">
+        <v>90</v>
+      </c>
       <c r="Y39" s="3"/>
     </row>
     <row r="40" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4071,7 +4144,9 @@
       <c r="W40" s="2">
         <v>80</v>
       </c>
-      <c r="X40" s="2"/>
+      <c r="X40" s="2">
+        <v>80</v>
+      </c>
       <c r="Y40" s="3"/>
     </row>
     <row r="41" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4144,7 +4219,9 @@
       <c r="W41" s="2">
         <v>100</v>
       </c>
-      <c r="X41" s="2"/>
+      <c r="X41" s="2">
+        <v>90</v>
+      </c>
       <c r="Y41" s="3"/>
     </row>
     <row r="42" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4217,7 +4294,9 @@
       <c r="W42" s="2">
         <v>100</v>
       </c>
-      <c r="X42" s="2"/>
+      <c r="X42" s="2">
+        <v>90</v>
+      </c>
       <c r="Y42" s="3"/>
     </row>
     <row r="43" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4353,7 +4432,9 @@
       <c r="W44" s="2">
         <v>100</v>
       </c>
-      <c r="X44" s="2"/>
+      <c r="X44" s="2">
+        <v>100</v>
+      </c>
       <c r="Y44" s="3"/>
     </row>
     <row r="45" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4426,7 +4507,9 @@
       <c r="W45" s="2">
         <v>95</v>
       </c>
-      <c r="X45" s="2"/>
+      <c r="X45" s="2">
+        <v>95</v>
+      </c>
       <c r="Y45" s="3"/>
     </row>
     <row r="46" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4499,7 +4582,9 @@
       <c r="W46" s="2">
         <v>100</v>
       </c>
-      <c r="X46" s="2"/>
+      <c r="X46" s="2">
+        <v>90</v>
+      </c>
       <c r="Y46" s="3"/>
     </row>
     <row r="47" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4572,7 +4657,9 @@
       <c r="W47" s="2">
         <v>95</v>
       </c>
-      <c r="X47" s="2"/>
+      <c r="X47" s="2">
+        <v>90</v>
+      </c>
       <c r="Y47" s="3"/>
     </row>
     <row r="48" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4645,10 +4732,12 @@
       <c r="W48" s="2">
         <v>90</v>
       </c>
-      <c r="X48" s="2"/>
+      <c r="X48" s="2">
+        <v>90</v>
+      </c>
       <c r="Y48" s="3"/>
     </row>
-    <row r="49" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:26" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>171860618</v>
       </c>
@@ -4718,10 +4807,12 @@
       <c r="W49" s="2">
         <v>95</v>
       </c>
-      <c r="X49" s="2"/>
+      <c r="X49" s="2">
+        <v>95</v>
+      </c>
       <c r="Y49" s="3"/>
     </row>
-    <row r="50" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:26" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>171860621</v>
       </c>
@@ -4743,7 +4834,7 @@
       <c r="G50" s="2">
         <v>95</v>
       </c>
-      <c r="H50" s="9">
+      <c r="H50" s="7">
         <v>95</v>
       </c>
       <c r="I50" s="2">
@@ -4791,10 +4882,15 @@
       <c r="W50" s="2">
         <v>100</v>
       </c>
-      <c r="X50" s="2"/>
+      <c r="X50" s="2">
+        <v>95</v>
+      </c>
       <c r="Y50" s="3"/>
-    </row>
-    <row r="51" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z50" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>171860622</v>
       </c>
@@ -4864,10 +4960,12 @@
       <c r="W51" s="2">
         <v>95</v>
       </c>
-      <c r="X51" s="2"/>
+      <c r="X51" s="2">
+        <v>95</v>
+      </c>
       <c r="Y51" s="3"/>
     </row>
-    <row r="52" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:26" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>171860630</v>
       </c>
@@ -4935,10 +5033,12 @@
       <c r="W52" s="2">
         <v>95</v>
       </c>
-      <c r="X52" s="2"/>
+      <c r="X52" s="2">
+        <v>90</v>
+      </c>
       <c r="Y52" s="3"/>
     </row>
-    <row r="53" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:26" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>171860633</v>
       </c>
@@ -5008,10 +5108,12 @@
       <c r="W53" s="2">
         <v>100</v>
       </c>
-      <c r="X53" s="2"/>
+      <c r="X53" s="2">
+        <v>95</v>
+      </c>
       <c r="Y53" s="3"/>
     </row>
-    <row r="54" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:26" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>171860634</v>
       </c>
@@ -5084,7 +5186,7 @@
       <c r="X54" s="2"/>
       <c r="Y54" s="3"/>
     </row>
-    <row r="55" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:26" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>171860636</v>
       </c>
@@ -5154,10 +5256,12 @@
       <c r="W55" s="2">
         <v>100</v>
       </c>
-      <c r="X55" s="2"/>
+      <c r="X55" s="2">
+        <v>100</v>
+      </c>
       <c r="Y55" s="3"/>
     </row>
-    <row r="56" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:26" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>171860655</v>
       </c>
@@ -5227,10 +5331,12 @@
       <c r="W56" s="2">
         <v>95</v>
       </c>
-      <c r="X56" s="2"/>
+      <c r="X56" s="2">
+        <v>90</v>
+      </c>
       <c r="Y56" s="3"/>
     </row>
-    <row r="57" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:26" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>171860656</v>
       </c>
@@ -5296,10 +5402,12 @@
       <c r="W57" s="2">
         <v>100</v>
       </c>
-      <c r="X57" s="2"/>
+      <c r="X57" s="2">
+        <v>100</v>
+      </c>
       <c r="Y57" s="3"/>
     </row>
-    <row r="58" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:26" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>171860669</v>
       </c>
@@ -5369,10 +5477,12 @@
       <c r="W58" s="2">
         <v>100</v>
       </c>
-      <c r="X58" s="2"/>
+      <c r="X58" s="2">
+        <v>90</v>
+      </c>
       <c r="Y58" s="3"/>
     </row>
-    <row r="59" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:26" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>171860681</v>
       </c>
@@ -5442,10 +5552,12 @@
       <c r="W59" s="2">
         <v>95</v>
       </c>
-      <c r="X59" s="2"/>
+      <c r="X59" s="2">
+        <v>90</v>
+      </c>
       <c r="Y59" s="3"/>
     </row>
-    <row r="60" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:26" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>171860682</v>
       </c>
@@ -5515,10 +5627,12 @@
       <c r="W60" s="2">
         <v>95</v>
       </c>
-      <c r="X60" s="2"/>
+      <c r="X60" s="2">
+        <v>95</v>
+      </c>
       <c r="Y60" s="3"/>
     </row>
-    <row r="61" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:26" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>171860683</v>
       </c>
@@ -5588,10 +5702,12 @@
       <c r="W61" s="2">
         <v>95</v>
       </c>
-      <c r="X61" s="2"/>
+      <c r="X61" s="2">
+        <v>95</v>
+      </c>
       <c r="Y61" s="3"/>
     </row>
-    <row r="62" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:26" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>171860684</v>
       </c>
@@ -5661,10 +5777,12 @@
       <c r="W62" s="2">
         <v>95</v>
       </c>
-      <c r="X62" s="2"/>
+      <c r="X62" s="2">
+        <v>90</v>
+      </c>
       <c r="Y62" s="3"/>
     </row>
-    <row r="63" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:26" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>171860686</v>
       </c>
@@ -5734,10 +5852,12 @@
       <c r="W63" s="2">
         <v>100</v>
       </c>
-      <c r="X63" s="2"/>
+      <c r="X63" s="2">
+        <v>95</v>
+      </c>
       <c r="Y63" s="3"/>
     </row>
-    <row r="64" spans="1:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:26" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>171870020</v>
       </c>

--- a/课后作业成绩2018/作业成绩.xlsx
+++ b/课后作业成绩2018/作业成绩.xlsx
@@ -1344,8 +1344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA36" sqref="AA36"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X54" sqref="X54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5183,7 +5183,9 @@
       <c r="W54" s="2">
         <v>95</v>
       </c>
-      <c r="X54" s="2"/>
+      <c r="X54" s="2">
+        <v>95</v>
+      </c>
       <c r="Y54" s="3"/>
     </row>
     <row r="55" spans="1:26" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/课后作业成绩2018/作业成绩.xlsx
+++ b/课后作业成绩2018/作业成绩.xlsx
@@ -1344,8 +1344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X54" sqref="X54"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z10" sqref="Z10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2431,7 +2431,9 @@
       <c r="T17" s="2">
         <v>80</v>
       </c>
-      <c r="U17" s="2"/>
+      <c r="U17" s="2">
+        <v>90</v>
+      </c>
       <c r="V17" s="2">
         <v>90</v>
       </c>
